--- a/data/n1-pXRF.xlsx
+++ b/data/n1-pXRF.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t xml:space="preserve">Sample</t>
   </si>
@@ -83,9 +83,6 @@
     <t xml:space="preserve">Ag</t>
   </si>
   <si>
-    <t xml:space="preserve">Sn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ba</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
   </si>
   <si>
     <t xml:space="preserve">RLZ_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST %</t>
   </si>
   <si>
     <t xml:space="preserve">TI-1</t>
@@ -773,13 +767,10 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="n">
         <v>0.130675270799723</v>
@@ -811,7 +802,7 @@
         <v>0.302704194260486</v>
       </c>
       <c r="M2" t="n">
-        <v>0.52406836100093</v>
+        <v>0.521862762461381</v>
       </c>
       <c r="N2" t="n">
         <v>0.291666666666667</v>
@@ -824,7 +815,7 @@
       </c>
       <c r="Q2"/>
       <c r="R2" t="n">
-        <v>0.436507936507936</v>
+        <v>0.509259259259259</v>
       </c>
       <c r="S2" t="n">
         <v>0.028657616892911</v>
@@ -836,16 +827,15 @@
         <v>0.284615384615385</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0108695652173913</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
-      <c r="Z2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="n">
         <v>0.173115498536102</v>
@@ -879,7 +869,7 @@
         <v>0.202262693156733</v>
       </c>
       <c r="M3" t="n">
-        <v>0.408765486508986</v>
+        <v>0.406025542633371</v>
       </c>
       <c r="N3" t="n">
         <v>0.25</v>
@@ -892,7 +882,7 @@
       </c>
       <c r="Q3"/>
       <c r="R3" t="n">
-        <v>0.293650793650794</v>
+        <v>0.342592592592593</v>
       </c>
       <c r="S3" t="n">
         <v>0.0380844645550528</v>
@@ -907,11 +897,10 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
-      <c r="Z3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
         <v>0.211070139048936</v>
@@ -943,7 +932,7 @@
         <v>0.211368653421634</v>
       </c>
       <c r="M4" t="n">
-        <v>0.397463395524215</v>
+        <v>0.394671074640376</v>
       </c>
       <c r="N4" t="n">
         <v>0.229166666666667</v>
@@ -956,7 +945,7 @@
       </c>
       <c r="Q4"/>
       <c r="R4" t="n">
-        <v>0.222222222222222</v>
+        <v>0.259259259259259</v>
       </c>
       <c r="S4" t="n">
         <v>0.0222473604826546</v>
@@ -971,11 +960,10 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
-      <c r="Z4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="n">
         <v>0.141024984422081</v>
@@ -1007,7 +995,7 @@
         <v>0.185706401766004</v>
       </c>
       <c r="M5" t="n">
-        <v>0.413211889721365</v>
+        <v>0.410492551705138</v>
       </c>
       <c r="N5" t="n">
         <v>0.145833333333333</v>
@@ -1020,7 +1008,7 @@
       </c>
       <c r="Q5"/>
       <c r="R5" t="n">
-        <v>0.246031746031746</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="S5" t="n">
         <v>0.0173453996983409</v>
@@ -1035,11 +1023,10 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
-      <c r="Z5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="n">
         <v>0.207335706298601</v>
@@ -1071,7 +1058,7 @@
         <v>0.207229580573951</v>
       </c>
       <c r="M6" t="n">
-        <v>0.508496155917928</v>
+        <v>0.506218391483165</v>
       </c>
       <c r="N6" t="n">
         <v>0.3125</v>
@@ -1084,7 +1071,7 @@
       </c>
       <c r="Q6"/>
       <c r="R6" t="n">
-        <v>0.293650793650794</v>
+        <v>0.342592592592593</v>
       </c>
       <c r="S6" t="n">
         <v>0.0107466063348416</v>
@@ -1099,11 +1086,10 @@
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
-      <c r="Z6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
         <v>0.193298507080484</v>
@@ -1137,7 +1123,7 @@
         <v>0.313465783664459</v>
       </c>
       <c r="M7" t="n">
-        <v>0.621957788551001</v>
+        <v>0.620205836629474</v>
       </c>
       <c r="N7" t="n">
         <v>0.229166666666667</v>
@@ -1150,7 +1136,7 @@
       </c>
       <c r="Q7"/>
       <c r="R7" t="n">
-        <v>0.317460317460317</v>
+        <v>0.37037037037037</v>
       </c>
       <c r="S7" t="n">
         <v>0.0450603318250377</v>
@@ -1162,16 +1148,15 @@
         <v>0.420512820512821</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0072463768115942</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
-      <c r="Z7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="n">
         <v>0.17719563306104</v>
@@ -1203,7 +1188,7 @@
         <v>0.193708609271523</v>
       </c>
       <c r="M8" t="n">
-        <v>0.470995543802948</v>
+        <v>0.468543991184053</v>
       </c>
       <c r="N8" t="n">
         <v>0.34375</v>
@@ -1218,7 +1203,7 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="R8" t="n">
-        <v>0.428571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="S8" t="n">
         <v>0.0258295625942685</v>
@@ -1233,11 +1218,10 @@
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
         <v>0.198573660085529</v>
@@ -1271,7 +1255,7 @@
         <v>0.251931567328918</v>
       </c>
       <c r="M9" t="n">
-        <v>0.499730669408942</v>
+        <v>0.497412283291025</v>
       </c>
       <c r="N9" t="n">
         <v>0.34375</v>
@@ -1286,7 +1270,7 @@
         <v>0.15</v>
       </c>
       <c r="R9" t="n">
-        <v>0.412698412698413</v>
+        <v>0.481481481481481</v>
       </c>
       <c r="S9" t="n">
         <v>0.0303544494720965</v>
@@ -1301,11 +1285,10 @@
       <c r="W9"/>
       <c r="X9"/>
       <c r="Y9"/>
-      <c r="Z9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
         <v>0.315164784512561</v>
@@ -1339,7 +1322,7 @@
         <v>0.44757174392936</v>
       </c>
       <c r="M10" t="n">
-        <v>0.862621810880956</v>
+        <v>0.861985162445638</v>
       </c>
       <c r="N10" t="n">
         <v>0.447916666666667</v>
@@ -1354,7 +1337,7 @@
         <v>0.1</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="S10" t="n">
         <v>0.0256410256410256</v>
@@ -1366,16 +1349,15 @@
         <v>0.405128205128205</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0235507246376812</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="W10"/>
       <c r="X10"/>
       <c r="Y10"/>
-      <c r="Z10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="n">
         <v>0.261589545295468</v>
@@ -1409,7 +1391,7 @@
         <v>0.260761589403974</v>
       </c>
       <c r="M11" t="n">
-        <v>0.578414377356643</v>
+        <v>0.576460633252652</v>
       </c>
       <c r="N11" t="n">
         <v>0.239583333333333</v>
@@ -1422,7 +1404,7 @@
       </c>
       <c r="Q11"/>
       <c r="R11" t="n">
-        <v>0.404761904761905</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="S11" t="n">
         <v>0.0411010558069382</v>
@@ -1434,16 +1416,15 @@
         <v>0.503846153846154</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0072463768115942</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="W11"/>
       <c r="X11"/>
       <c r="Y11"/>
-      <c r="Z11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
         <v>0.128579720536393</v>
@@ -1475,7 +1456,7 @@
         <v>0.18901766004415</v>
       </c>
       <c r="M12" t="n">
-        <v>0.324440526908575</v>
+        <v>0.321309797902277</v>
       </c>
       <c r="N12" t="n">
         <v>0.28125</v>
@@ -1488,7 +1469,7 @@
       </c>
       <c r="Q12"/>
       <c r="R12" t="n">
-        <v>0.238095238095238</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="S12" t="n">
         <v>0.00226244343891403</v>
@@ -1503,11 +1484,10 @@
       <c r="W12"/>
       <c r="X12"/>
       <c r="Y12"/>
-      <c r="Z12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
         <v>0.171749763130266</v>
@@ -1539,7 +1519,7 @@
         <v>0.188741721854305</v>
       </c>
       <c r="M13" t="n">
-        <v>0.33037559375153</v>
+        <v>0.327272369482653</v>
       </c>
       <c r="N13" t="n">
         <v>0.0833333333333333</v>
@@ -1554,7 +1534,7 @@
         <v>0.0333333333333333</v>
       </c>
       <c r="R13" t="n">
-        <v>0.206349206349206</v>
+        <v>0.240740740740741</v>
       </c>
       <c r="S13" t="n">
         <v>0.00207390648567119</v>
@@ -1569,11 +1549,10 @@
       <c r="W13"/>
       <c r="X13"/>
       <c r="Y13"/>
-      <c r="Z13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
         <v>0.210579327887463</v>
@@ -1607,7 +1586,7 @@
         <v>0.2530353200883</v>
       </c>
       <c r="M14" t="n">
-        <v>0.435189265951716</v>
+        <v>0.432571777161186</v>
       </c>
       <c r="N14" t="n">
         <v>0.28125</v>
@@ -1622,7 +1601,7 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="R14" t="n">
-        <v>0.301587301587302</v>
+        <v>0.351851851851852</v>
       </c>
       <c r="S14" t="n">
         <v>0.0271493212669683</v>
@@ -1637,11 +1616,10 @@
       <c r="W14"/>
       <c r="X14"/>
       <c r="Y14"/>
-      <c r="Z14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="n">
         <v>0.0793022799245431</v>
@@ -1675,7 +1653,7 @@
         <v>0.218818984547461</v>
       </c>
       <c r="M15" t="n">
-        <v>0.443190832966064</v>
+        <v>0.440610425644961</v>
       </c>
       <c r="N15" t="n">
         <v>0.28125</v>
@@ -1688,7 +1666,7 @@
       </c>
       <c r="Q15"/>
       <c r="R15" t="n">
-        <v>0.388888888888889</v>
+        <v>0.453703703703704</v>
       </c>
       <c r="S15" t="n">
         <v>0.026395173453997</v>
@@ -1700,16 +1678,15 @@
         <v>0.437179487179487</v>
       </c>
       <c r="V15" t="n">
-        <v>0.016304347826087</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="W15"/>
       <c r="X15"/>
       <c r="Y15"/>
-      <c r="Z15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="n">
         <v>0.0967708893498246</v>
@@ -1745,7 +1722,7 @@
         <v>0.360651214128035</v>
       </c>
       <c r="M16" t="n">
-        <v>0.471896577053034</v>
+        <v>0.469449200070842</v>
       </c>
       <c r="N16" t="n">
         <v>0.34375</v>
@@ -1760,7 +1737,7 @@
         <v>0.2</v>
       </c>
       <c r="R16" t="n">
-        <v>0.285714285714286</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S16" t="n">
         <v>0.0228129713423831</v>
@@ -1772,16 +1749,15 @@
         <v>0.28974358974359</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0126811594202899</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="W16"/>
       <c r="X16"/>
       <c r="Y16"/>
-      <c r="Z16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="n">
         <v>0.136326001041373</v>
@@ -1815,7 +1791,7 @@
         <v>0.217991169977925</v>
       </c>
       <c r="M17" t="n">
-        <v>0.37857107879144</v>
+        <v>0.37569120569888</v>
       </c>
       <c r="N17" t="n">
         <v>0.40625</v>
@@ -1828,7 +1804,7 @@
       </c>
       <c r="Q17"/>
       <c r="R17" t="n">
-        <v>0.380952380952381</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="S17" t="n">
         <v>0.0231900452488688</v>
@@ -1841,11 +1817,10 @@
       <c r="W17"/>
       <c r="X17"/>
       <c r="Y17"/>
-      <c r="Z17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="n">
         <v>0.187861172995997</v>
@@ -1877,7 +1852,7 @@
         <v>0.332505518763797</v>
       </c>
       <c r="M18" t="n">
-        <v>0.470368738063758</v>
+        <v>0.467914280654112</v>
       </c>
       <c r="N18" t="n">
         <v>0.302083333333333</v>
@@ -1892,7 +1867,7 @@
         <v>0.25</v>
       </c>
       <c r="R18" t="n">
-        <v>0.333333333333333</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="S18" t="n">
         <v>0.02526395173454</v>
@@ -1907,11 +1882,10 @@
       <c r="W18"/>
       <c r="X18"/>
       <c r="Y18"/>
-      <c r="Z18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
         <v>0.167271644772221</v>
@@ -1943,7 +1917,7 @@
         <v>0.240273178807947</v>
       </c>
       <c r="M19" t="n">
-        <v>0.406757749375643</v>
+        <v>0.404008501092154</v>
       </c>
       <c r="N19" t="n">
         <v>0.2890625</v>
@@ -1956,7 +1930,7 @@
       </c>
       <c r="Q19"/>
       <c r="R19" t="n">
-        <v>0.410714285714286</v>
+        <v>0.479166666666667</v>
       </c>
       <c r="S19" t="n">
         <v>0.0202205882352941</v>
@@ -1971,11 +1945,10 @@
       <c r="W19"/>
       <c r="X19"/>
       <c r="Y19"/>
-      <c r="Z19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
         <v>0.272489821003303</v>
@@ -2007,7 +1980,7 @@
         <v>0.383278145695364</v>
       </c>
       <c r="M20" t="n">
-        <v>0.782841192889672</v>
+        <v>0.781834819056615</v>
       </c>
       <c r="N20" t="n">
         <v>0.333333333333333</v>
@@ -2022,7 +1995,7 @@
         <v>0.15</v>
       </c>
       <c r="R20" t="n">
-        <v>0.484126984126984</v>
+        <v>0.564814814814815</v>
       </c>
       <c r="S20" t="n">
         <v>0.027526395173454</v>
@@ -2034,18 +2007,17 @@
         <v>0.420512820512821</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0217391304347826</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20" t="n">
-        <v>0.0721601489757914</v>
-      </c>
-      <c r="Z20"/>
+      <c r="X20" t="n">
+        <v>0.193508114856429</v>
+      </c>
+      <c r="Y20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
         <v>0.239912763650952</v>
@@ -2079,7 +2051,7 @@
         <v>0.310430463576159</v>
       </c>
       <c r="M21" t="n">
-        <v>0.677136281279075</v>
+        <v>0.675640041718323</v>
       </c>
       <c r="N21" t="n">
         <v>0.270833333333333</v>
@@ -2094,7 +2066,7 @@
         <v>0.183333333333333</v>
       </c>
       <c r="R21" t="n">
-        <v>0.484126984126984</v>
+        <v>0.564814814814815</v>
       </c>
       <c r="S21" t="n">
         <v>0.0269607843137255</v>
@@ -2106,16 +2078,15 @@
         <v>0.521794871794872</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0126811594202899</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="W21"/>
       <c r="X21"/>
       <c r="Y21"/>
-      <c r="Z21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
         <v>0.209149573634478</v>
@@ -2149,7 +2120,7 @@
         <v>0.344922737306843</v>
       </c>
       <c r="M22" t="n">
-        <v>0.733264776455609</v>
+        <v>0.732028651829112</v>
       </c>
       <c r="N22" t="n">
         <v>0.34375</v>
@@ -2164,7 +2135,7 @@
         <v>0.15</v>
       </c>
       <c r="R22" t="n">
-        <v>0.476190476190476</v>
+        <v>0.555555555555555</v>
       </c>
       <c r="S22" t="n">
         <v>0.0235671191553544</v>
@@ -2176,16 +2147,15 @@
         <v>0.511538461538461</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0181159420289855</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="W22"/>
       <c r="X22"/>
       <c r="Y22"/>
-      <c r="Z22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
         <v>0.176841395440151</v>
@@ -2217,7 +2187,7 @@
         <v>0.274282560706402</v>
       </c>
       <c r="M23" t="n">
-        <v>0.419617060868714</v>
+        <v>0.41692740618297</v>
       </c>
       <c r="N23" t="n">
         <v>0.28125</v>
@@ -2230,7 +2200,7 @@
       </c>
       <c r="Q23"/>
       <c r="R23" t="n">
-        <v>0.23015873015873</v>
+        <v>0.268518518518518</v>
       </c>
       <c r="S23" t="n">
         <v>0.00622171945701358</v>
@@ -2245,11 +2215,10 @@
       <c r="W23"/>
       <c r="X23"/>
       <c r="Y23"/>
-      <c r="Z23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" t="n">
         <v>0.172778332607786</v>
@@ -2281,7 +2250,7 @@
         <v>0.211368653421634</v>
       </c>
       <c r="M24" t="n">
-        <v>0.391097399735566</v>
+        <v>0.388275577070665</v>
       </c>
       <c r="N24" t="n">
         <v>0.3125</v>
@@ -2294,7 +2263,7 @@
       </c>
       <c r="Q24"/>
       <c r="R24" t="n">
-        <v>0.285714285714286</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S24" t="n">
         <v>0.01263197586727</v>
@@ -2309,11 +2278,10 @@
       <c r="W24"/>
       <c r="X24"/>
       <c r="Y24"/>
-      <c r="Z24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" t="n">
         <v>0.145954435652523</v>
@@ -2345,7 +2313,7 @@
         <v>0.123620309050773</v>
       </c>
       <c r="M25" t="n">
-        <v>0.282140933352921</v>
+        <v>0.278814176358305</v>
       </c>
       <c r="N25"/>
       <c r="O25" t="n">
@@ -2358,7 +2326,7 @@
         <v>0.133333333333333</v>
       </c>
       <c r="R25" t="n">
-        <v>0.277777777777778</v>
+        <v>0.324074074074074</v>
       </c>
       <c r="S25" t="n">
         <v>0.0158371040723982</v>
@@ -2373,11 +2341,10 @@
       <c r="W25"/>
       <c r="X25"/>
       <c r="Y25"/>
-      <c r="Z25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" t="n">
         <v>0.179696636022978</v>
@@ -2411,7 +2378,7 @@
         <v>0.27924944812362</v>
       </c>
       <c r="M26" t="n">
-        <v>0.525145683365163</v>
+        <v>0.522945077434717</v>
       </c>
       <c r="N26" t="n">
         <v>0.3125</v>
@@ -2424,7 +2391,7 @@
       </c>
       <c r="Q26"/>
       <c r="R26" t="n">
-        <v>0.420634920634921</v>
+        <v>0.490740740740741</v>
       </c>
       <c r="S26" t="n">
         <v>0.0228129713423831</v>
@@ -2436,16 +2403,15 @@
         <v>0.423076923076923</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0326086956521739</v>
+        <v>0.545454545454546</v>
       </c>
       <c r="W26"/>
       <c r="X26"/>
       <c r="Y26"/>
-      <c r="Z26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" t="n">
         <v>0.105917048645788</v>
@@ -2477,7 +2443,7 @@
         <v>0.279525386313466</v>
       </c>
       <c r="M27" t="n">
-        <v>0.477067724401352</v>
+        <v>0.474644311942854</v>
       </c>
       <c r="N27" t="n">
         <v>0.25</v>
@@ -2490,7 +2456,7 @@
       </c>
       <c r="Q27"/>
       <c r="R27" t="n">
-        <v>0.412698412698413</v>
+        <v>0.481481481481481</v>
       </c>
       <c r="S27" t="n">
         <v>0.0258295625942685</v>
@@ -2505,11 +2471,10 @@
       <c r="W27"/>
       <c r="X27"/>
       <c r="Y27"/>
-      <c r="Z27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="n">
         <v>0.171685744283117</v>
@@ -2541,7 +2506,7 @@
         <v>0.240066225165563</v>
       </c>
       <c r="M28" t="n">
-        <v>0.360501444591352</v>
+        <v>0.357537831827932</v>
       </c>
       <c r="N28" t="n">
         <v>0.364583333333333</v>
@@ -2556,7 +2521,7 @@
         <v>0.116666666666667</v>
       </c>
       <c r="R28" t="n">
-        <v>0.23015873015873</v>
+        <v>0.268518518518518</v>
       </c>
       <c r="S28" t="n">
         <v>0.0360105580693816</v>
@@ -2571,11 +2536,10 @@
       <c r="W28"/>
       <c r="X28"/>
       <c r="Y28"/>
-      <c r="Z28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" t="n">
         <v>0.204262801635468</v>
@@ -2609,7 +2573,7 @@
         <v>0.222682119205298</v>
       </c>
       <c r="M29" t="n">
-        <v>0.400754125654963</v>
+        <v>0.397977054922565</v>
       </c>
       <c r="N29" t="n">
         <v>0.15625</v>
@@ -2622,7 +2586,7 @@
       </c>
       <c r="Q29"/>
       <c r="R29" t="n">
-        <v>0.238095238095238</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="S29" t="n">
         <v>0.0109351432880845</v>
@@ -2637,11 +2601,10 @@
       <c r="W29"/>
       <c r="X29"/>
       <c r="Y29"/>
-      <c r="Z29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" t="n">
         <v>0.104226951081065</v>
@@ -2673,7 +2636,7 @@
         <v>0.331401766004415</v>
       </c>
       <c r="M30" t="n">
-        <v>0.475628029969149</v>
+        <v>0.473197945569396</v>
       </c>
       <c r="N30" t="n">
         <v>0.333333333333333</v>
@@ -2686,7 +2649,7 @@
       </c>
       <c r="Q30"/>
       <c r="R30" t="n">
-        <v>0.412698412698413</v>
+        <v>0.481481481481481</v>
       </c>
       <c r="S30" t="n">
         <v>0.0288461538461538</v>
@@ -2701,11 +2664,10 @@
       <c r="W30"/>
       <c r="X30"/>
       <c r="Y30"/>
-      <c r="Z30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="n">
         <v>0.245076950654273</v>
@@ -2737,7 +2699,7 @@
         <v>0.257174392935982</v>
       </c>
       <c r="M31" t="n">
-        <v>0.567151461730571</v>
+        <v>0.565145522167778</v>
       </c>
       <c r="N31" t="n">
         <v>0.208333333333333</v>
@@ -2752,7 +2714,7 @@
         <v>0.0333333333333333</v>
       </c>
       <c r="R31" t="n">
-        <v>0.341269841269841</v>
+        <v>0.398148148148148</v>
       </c>
       <c r="S31" t="n">
         <v>0.0180995475113122</v>
@@ -2764,16 +2726,15 @@
         <v>0.353846153846154</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0181159420289855</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="W31"/>
       <c r="X31"/>
       <c r="Y31"/>
-      <c r="Z31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" t="n">
         <v>0.194916049951772</v>
@@ -2807,7 +2768,7 @@
         <v>0.31401766004415</v>
       </c>
       <c r="M32" t="n">
-        <v>0.566867440380001</v>
+        <v>0.564860184583899</v>
       </c>
       <c r="N32" t="n">
         <v>0.260416666666667</v>
@@ -2822,7 +2783,7 @@
         <v>0.15</v>
       </c>
       <c r="R32" t="n">
-        <v>0.349206349206349</v>
+        <v>0.407407407407407</v>
       </c>
       <c r="S32" t="n">
         <v>0.0497737556561086</v>
@@ -2834,16 +2795,15 @@
         <v>0.361538461538462</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0108695652173913</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="W32"/>
       <c r="X32"/>
       <c r="Y32"/>
-      <c r="Z32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="n">
         <v>0.164869871023363</v>
@@ -2877,7 +2837,7 @@
         <v>0.204470198675497</v>
       </c>
       <c r="M33" t="n">
-        <v>0.428774300964693</v>
+        <v>0.426127083456324</v>
       </c>
       <c r="N33" t="n">
         <v>0.208333333333333</v>
@@ -2890,7 +2850,7 @@
       </c>
       <c r="Q33"/>
       <c r="R33" t="n">
-        <v>0.301587301587302</v>
+        <v>0.351851851851852</v>
       </c>
       <c r="S33" t="n">
         <v>0.0254524886877828</v>
@@ -2905,11 +2865,10 @@
       <c r="W33"/>
       <c r="X33"/>
       <c r="Y33"/>
-      <c r="Z33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" t="n">
         <v>0.0977866550579157</v>
@@ -2943,7 +2902,7 @@
         <v>0.170805739514349</v>
       </c>
       <c r="M34" t="n">
-        <v>0.32536114783801</v>
+        <v>0.322234685243127</v>
       </c>
       <c r="N34" t="n">
         <v>0.239583333333333</v>
@@ -2956,7 +2915,7 @@
       </c>
       <c r="Q34"/>
       <c r="R34" t="n">
-        <v>0.317460317460317</v>
+        <v>0.37037037037037</v>
       </c>
       <c r="S34" t="n">
         <v>0.0322398190045249</v>
@@ -2969,11 +2928,10 @@
       <c r="W34"/>
       <c r="X34"/>
       <c r="Y34"/>
-      <c r="Z34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" t="n">
         <v>0.227305318685821</v>
@@ -3007,7 +2965,7 @@
         <v>0.230132450331126</v>
       </c>
       <c r="M35" t="n">
-        <v>0.436237206796925</v>
+        <v>0.433624574453431</v>
       </c>
       <c r="N35" t="n">
         <v>0.1875</v>
@@ -3020,7 +2978,7 @@
       </c>
       <c r="Q35"/>
       <c r="R35" t="n">
-        <v>0.293650793650794</v>
+        <v>0.342592592592593</v>
       </c>
       <c r="S35" t="n">
         <v>0.0143288084464555</v>
@@ -3035,11 +2993,10 @@
       <c r="W35"/>
       <c r="X35"/>
       <c r="Y35"/>
-      <c r="Z35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" t="n">
         <v>0.241598593292532</v>
@@ -3071,7 +3028,7 @@
         <v>0.238686534216336</v>
       </c>
       <c r="M36" t="n">
-        <v>0.421859850154253</v>
+        <v>0.419180589172915</v>
       </c>
       <c r="N36" t="n">
         <v>0.270833333333333</v>
@@ -3084,7 +3041,7 @@
       </c>
       <c r="Q36"/>
       <c r="R36" t="n">
-        <v>0.333333333333333</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="S36" t="n">
         <v>0.0164027149321267</v>
@@ -3099,11 +3056,10 @@
       <c r="W36"/>
       <c r="X36"/>
       <c r="Y36"/>
-      <c r="Z36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" t="n">
         <v>0.224966496803326</v>
@@ -3137,7 +3093,7 @@
         <v>0.275110375275938</v>
       </c>
       <c r="M37" t="n">
-        <v>0.532089515694628</v>
+        <v>0.529921089399217</v>
       </c>
       <c r="N37" t="n">
         <v>0.166666666666667</v>
@@ -3152,7 +3108,7 @@
         <v>0.0333333333333333</v>
       </c>
       <c r="R37" t="n">
-        <v>0.293650793650794</v>
+        <v>0.342592592592593</v>
       </c>
       <c r="S37" t="n">
         <v>0.0196078431372549</v>
@@ -3164,16 +3120,15 @@
         <v>0.291025641025641</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0072463768115942</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="W37"/>
       <c r="X37"/>
       <c r="Y37"/>
-      <c r="Z37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" t="n">
         <v>0.110445315100766</v>
@@ -3205,7 +3160,7 @@
         <v>0.213024282560706</v>
       </c>
       <c r="M38" t="n">
-        <v>0.393741736447774</v>
+        <v>0.390932168368853</v>
       </c>
       <c r="N38" t="n">
         <v>0.364583333333333</v>
@@ -3220,7 +3175,7 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="R38" t="n">
-        <v>0.357142857142857</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="S38" t="n">
         <v>0.0292232277526395</v>
@@ -3235,11 +3190,10 @@
       <c r="W38"/>
       <c r="X38"/>
       <c r="Y38"/>
-      <c r="Z38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" t="n">
         <v>0.194625831178032</v>
@@ -3273,7 +3227,7 @@
         <v>0.309602649006623</v>
       </c>
       <c r="M39" t="n">
-        <v>0.591058224376867</v>
+        <v>0.589163075348801</v>
       </c>
       <c r="N39" t="n">
         <v>0.1875</v>
@@ -3288,7 +3242,7 @@
         <v>0.1</v>
       </c>
       <c r="R39" t="n">
-        <v>0.317460317460317</v>
+        <v>0.37037037037037</v>
       </c>
       <c r="S39" t="n">
         <v>0.0318627450980392</v>
@@ -3300,16 +3254,15 @@
         <v>0.332051282051282</v>
       </c>
       <c r="V39" t="n">
-        <v>0.0108695652173913</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="W39"/>
       <c r="X39"/>
       <c r="Y39"/>
-      <c r="Z39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" t="n">
         <v>0.190485945729089</v>
@@ -3341,7 +3294,7 @@
         <v>0.377483443708609</v>
       </c>
       <c r="M40" t="n">
-        <v>0.711561627736154</v>
+        <v>0.710224924729913</v>
       </c>
       <c r="N40" t="n">
         <v>0.46875</v>
@@ -3354,7 +3307,7 @@
       </c>
       <c r="Q40"/>
       <c r="R40" t="n">
-        <v>0.531746031746032</v>
+        <v>0.62037037037037</v>
       </c>
       <c r="S40" t="n">
         <v>0.0348793363499246</v>
@@ -3366,16 +3319,15 @@
         <v>0.593589743589744</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0344202898550725</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="W40"/>
       <c r="X40"/>
       <c r="Y40"/>
-      <c r="Z40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" t="n">
         <v>0.14944132886055</v>
@@ -3409,7 +3361,7 @@
         <v>0.353752759381898</v>
       </c>
       <c r="M41" t="n">
-        <v>0.656118701336859</v>
+        <v>0.654525060511246</v>
       </c>
       <c r="N41" t="n">
         <v>0.333333333333333</v>
@@ -3424,7 +3376,7 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="R41" t="n">
-        <v>0.380952380952381</v>
+        <v>0.444444444444444</v>
       </c>
       <c r="S41" t="n">
         <v>0.029788838612368</v>
@@ -3439,11 +3391,10 @@
       <c r="W41"/>
       <c r="X41"/>
       <c r="Y41"/>
-      <c r="Z41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" t="n">
         <v>0.140871339188924</v>
@@ -3475,7 +3426,7 @@
         <v>0.308222958057395</v>
       </c>
       <c r="M42" t="n">
-        <v>0.516380196856177</v>
+        <v>0.514138969242576</v>
       </c>
       <c r="N42" t="n">
         <v>0.260416666666667</v>
@@ -3490,7 +3441,7 @@
         <v>0.3</v>
       </c>
       <c r="R42" t="n">
-        <v>0.341269841269841</v>
+        <v>0.398148148148148</v>
       </c>
       <c r="S42" t="n">
         <v>0.0367647058823529</v>
@@ -3505,11 +3456,10 @@
       <c r="W42"/>
       <c r="X42"/>
       <c r="Y42"/>
-      <c r="Z42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" t="n">
         <v>0.146091009193106</v>
@@ -3541,7 +3491,7 @@
         <v>0.22378587196468</v>
       </c>
       <c r="M43" t="n">
-        <v>0.395671122863719</v>
+        <v>0.392870496093827</v>
       </c>
       <c r="N43" t="n">
         <v>0.21875</v>
@@ -3554,7 +3504,7 @@
       </c>
       <c r="Q43"/>
       <c r="R43" t="n">
-        <v>0.277777777777778</v>
+        <v>0.324074074074074</v>
       </c>
       <c r="S43" t="n">
         <v>0.0194193061840121</v>
@@ -3569,11 +3519,10 @@
       <c r="W43"/>
       <c r="X43"/>
       <c r="Y43"/>
-      <c r="Z43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" t="n">
         <v>0.130542965182283</v>
@@ -3605,7 +3554,7 @@
         <v>0.359823399558499</v>
       </c>
       <c r="M44" t="n">
-        <v>0.556133392096371</v>
+        <v>0.554076391758663</v>
       </c>
       <c r="N44" t="n">
         <v>0.395833333333333</v>
@@ -3618,7 +3567,7 @@
       </c>
       <c r="Q44"/>
       <c r="R44" t="n">
-        <v>0.531746031746032</v>
+        <v>0.62037037037037</v>
       </c>
       <c r="S44" t="n">
         <v>0.0311085972850679</v>
@@ -3630,16 +3579,15 @@
         <v>0.338461538461538</v>
       </c>
       <c r="V44" t="n">
-        <v>0.0235507246376812</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="W44"/>
       <c r="X44"/>
       <c r="Y44"/>
-      <c r="Z44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45" t="n">
         <v>0.234488233335894</v>
@@ -3671,7 +3619,7 @@
         <v>0.283388520971302</v>
       </c>
       <c r="M45" t="n">
-        <v>0.532931785906665</v>
+        <v>0.530767262923825</v>
       </c>
       <c r="N45" t="n">
         <v>0.15625</v>
@@ -3684,7 +3632,7 @@
       </c>
       <c r="Q45"/>
       <c r="R45" t="n">
-        <v>0.301587301587302</v>
+        <v>0.351851851851852</v>
       </c>
       <c r="S45" t="n">
         <v>0.0367647058823529</v>
@@ -3697,15 +3645,14 @@
       </c>
       <c r="V45"/>
       <c r="W45"/>
-      <c r="X45"/>
-      <c r="Y45" t="n">
-        <v>0.0689013035381751</v>
-      </c>
-      <c r="Z45"/>
+      <c r="X45" t="n">
+        <v>0.184769038701623</v>
+      </c>
+      <c r="Y45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" t="n">
         <v>0.239938371189812</v>
@@ -3739,7 +3686,7 @@
         <v>0.168598233995585</v>
       </c>
       <c r="M46" t="n">
-        <v>0.313608540228196</v>
+        <v>0.310427612806738</v>
       </c>
       <c r="N46" t="n">
         <v>0.239583333333333</v>
@@ -3754,7 +3701,7 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="R46" t="n">
-        <v>0.293650793650794</v>
+        <v>0.342592592592593</v>
       </c>
       <c r="S46" t="n">
         <v>0.189856711915535</v>
@@ -3767,11 +3714,10 @@
       <c r="W46"/>
       <c r="X46"/>
       <c r="Y46"/>
-      <c r="Z46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" t="n">
         <v>0.211718863366708</v>
@@ -3803,7 +3749,7 @@
         <v>0.192604856512141</v>
       </c>
       <c r="M47" t="n">
-        <v>0.413192302042016</v>
+        <v>0.410472873251077</v>
       </c>
       <c r="N47" t="n">
         <v>0.09375</v>
@@ -3818,7 +3764,7 @@
         <v>0.133333333333333</v>
       </c>
       <c r="R47" t="n">
-        <v>0.412698412698413</v>
+        <v>0.481481481481481</v>
       </c>
       <c r="S47" t="n">
         <v>0.0818250377073906</v>
@@ -3832,14 +3778,13 @@
       <c r="V47"/>
       <c r="W47"/>
       <c r="X47"/>
-      <c r="Y47"/>
-      <c r="Z47" t="n">
-        <v>0.468992248062015</v>
+      <c r="Y47" t="n">
+        <v>0.677871148459384</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" t="n">
         <v>0.14393570800577</v>
@@ -3873,7 +3818,7 @@
         <v>0.188741721854305</v>
       </c>
       <c r="M48" t="n">
-        <v>0.784868517702365</v>
+        <v>0.783871539051892</v>
       </c>
       <c r="N48" t="n">
         <v>0.166666666666667</v>
@@ -3888,7 +3833,7 @@
         <v>0.616666666666667</v>
       </c>
       <c r="R48" t="n">
-        <v>0.309523809523809</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="S48" t="n">
         <v>0.069947209653092</v>
@@ -3902,14 +3847,13 @@
       <c r="V48"/>
       <c r="W48"/>
       <c r="X48"/>
-      <c r="Y48"/>
-      <c r="Z48" t="n">
-        <v>0.544573643410853</v>
+      <c r="Y48" t="n">
+        <v>0.787114845938375</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49" t="n">
         <v>0.152113048748218</v>
@@ -3943,7 +3887,7 @@
         <v>0.230132450331126</v>
       </c>
       <c r="M49" t="n">
-        <v>0.544145732334362</v>
+        <v>0.542033177873546</v>
       </c>
       <c r="N49" t="n">
         <v>0.333333333333333</v>
@@ -3958,7 +3902,7 @@
         <v>0.283333333333333</v>
       </c>
       <c r="R49" t="n">
-        <v>0.468253968253968</v>
+        <v>0.546296296296296</v>
       </c>
       <c r="S49" t="n">
         <v>0.0716440422322775</v>
@@ -3972,14 +3916,13 @@
       <c r="V49"/>
       <c r="W49"/>
       <c r="X49"/>
-      <c r="Y49"/>
-      <c r="Z49" t="n">
-        <v>0.397286821705426</v>
+      <c r="Y49" t="n">
+        <v>0.574229691876751</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50" t="n">
         <v>0.10443181139194</v>
@@ -4011,7 +3954,7 @@
         <v>0.197847682119205</v>
       </c>
       <c r="M50" t="n">
-        <v>0.403878360511238</v>
+        <v>0.401115768345239</v>
       </c>
       <c r="N50" t="n">
         <v>0.375</v>
@@ -4024,7 +3967,7 @@
       </c>
       <c r="Q50"/>
       <c r="R50" t="n">
-        <v>0.357142857142857</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="S50" t="n">
         <v>0.0341251885369532</v>
@@ -4039,11 +3982,10 @@
       <c r="W50"/>
       <c r="X50"/>
       <c r="Y50"/>
-      <c r="Z50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51"/>
       <c r="C51" t="n">
@@ -4075,7 +4017,7 @@
         <v>0.473233995584989</v>
       </c>
       <c r="M51" t="n">
-        <v>0.897164683414132</v>
+        <v>0.896688116181593</v>
       </c>
       <c r="N51" t="n">
         <v>0.614583333333333</v>
@@ -4090,7 +4032,7 @@
         <v>0.633333333333333</v>
       </c>
       <c r="R51" t="n">
-        <v>0.373015873015873</v>
+        <v>0.435185185185185</v>
       </c>
       <c r="S51" t="n">
         <v>0.154034690799397</v>
@@ -4102,22 +4044,21 @@
         <v>0.846153846153846</v>
       </c>
       <c r="V51" t="n">
-        <v>0.0181159420289855</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="W51" t="n">
-        <v>0.0168612191958495</v>
-      </c>
-      <c r="X51"/>
+        <v>0.206349206349206</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.371410736579276</v>
+      </c>
       <c r="Y51" t="n">
-        <v>0.138500931098696</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>0.467054263565891</v>
+        <v>0.675070028011205</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" t="n">
         <v>0.170866303039615</v>
@@ -4149,7 +4090,7 @@
         <v>0.181015452538631</v>
       </c>
       <c r="M52" t="n">
-        <v>0.359394740708095</v>
+        <v>0.356425999173505</v>
       </c>
       <c r="N52" t="n">
         <v>0.21875</v>
@@ -4175,11 +4116,10 @@
       <c r="W52"/>
       <c r="X52"/>
       <c r="Y52"/>
-      <c r="Z52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53" t="n">
         <v>0.327102165544203</v>
@@ -4213,7 +4153,7 @@
         <v>0.209437086092715</v>
       </c>
       <c r="M53" t="n">
-        <v>0.404152588022134</v>
+        <v>0.401391266702088</v>
       </c>
       <c r="N53" t="n">
         <v>0.4375</v>
@@ -4226,7 +4166,7 @@
       </c>
       <c r="Q53"/>
       <c r="R53" t="n">
-        <v>0.277777777777778</v>
+        <v>0.324074074074074</v>
       </c>
       <c r="S53" t="n">
         <v>0.407051282051282</v>
@@ -4239,11 +4179,10 @@
       <c r="W53"/>
       <c r="X53"/>
       <c r="Y53"/>
-      <c r="Z53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54" t="n">
         <v>0.370792894761551</v>
@@ -4279,7 +4218,7 @@
         <v>0.172185430463576</v>
       </c>
       <c r="M54" t="n">
-        <v>0.385005631457813</v>
+        <v>0.382155577857804</v>
       </c>
       <c r="N54" t="n">
         <v>0.270833333333333</v>
@@ -4292,7 +4231,7 @@
       </c>
       <c r="Q54"/>
       <c r="R54" t="n">
-        <v>0.222222222222222</v>
+        <v>0.259259259259259</v>
       </c>
       <c r="S54" t="n">
         <v>0.562217194570136</v>
@@ -4305,11 +4244,10 @@
       <c r="W54"/>
       <c r="X54"/>
       <c r="Y54"/>
-      <c r="Z54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B55" t="n">
         <v>0.123556374996799</v>
@@ -4341,7 +4279,7 @@
         <v>0.187637969094923</v>
       </c>
       <c r="M55" t="n">
-        <v>0.322334851378483</v>
+        <v>0.319194364090757</v>
       </c>
       <c r="N55" t="n">
         <v>0.375</v>
@@ -4354,7 +4292,7 @@
       </c>
       <c r="Q55"/>
       <c r="R55" t="n">
-        <v>0.420634920634921</v>
+        <v>0.490740740740741</v>
       </c>
       <c r="S55" t="n">
         <v>0.0669306184012066</v>
@@ -4367,11 +4305,10 @@
       <c r="W55"/>
       <c r="X55"/>
       <c r="Y55"/>
-      <c r="Z55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56" t="n">
         <v>0.154993896869905</v>
@@ -4405,7 +4342,7 @@
         <v>0.301324503311258</v>
       </c>
       <c r="M56" t="n">
-        <v>0.411733019930464</v>
+        <v>0.409006828423559</v>
       </c>
       <c r="N56" t="n">
         <v>0.40625</v>
@@ -4420,7 +4357,7 @@
         <v>0.1</v>
       </c>
       <c r="R56" t="n">
-        <v>0.436507936507936</v>
+        <v>0.509259259259259</v>
       </c>
       <c r="S56" t="n">
         <v>0.0757918552036199</v>
@@ -4432,16 +4369,15 @@
         <v>0.507692307692308</v>
       </c>
       <c r="V56" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="W56"/>
       <c r="X56"/>
       <c r="Y56"/>
-      <c r="Z56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" t="n">
         <v>0.346918132698266</v>
@@ -4473,7 +4409,7 @@
         <v>0.15424944812362</v>
       </c>
       <c r="M57" t="n">
-        <v>0.142617893345086</v>
+        <v>0.138644548084303</v>
       </c>
       <c r="N57"/>
       <c r="O57" t="n">
@@ -4484,7 +4420,7 @@
       </c>
       <c r="Q57"/>
       <c r="R57" t="n">
-        <v>0.166666666666667</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="S57" t="n">
         <v>0.39762443438914</v>
@@ -4495,15 +4431,14 @@
       </c>
       <c r="V57"/>
       <c r="W57"/>
-      <c r="X57"/>
-      <c r="Y57" t="n">
-        <v>0.192970204841713</v>
-      </c>
-      <c r="Z57"/>
+      <c r="X57" t="n">
+        <v>0.517478152309613</v>
+      </c>
+      <c r="Y57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" t="n">
         <v>0.324251192884519</v>
@@ -4535,7 +4470,7 @@
         <v>0.251931567328918</v>
       </c>
       <c r="M58" t="n">
-        <v>0.323294647666618</v>
+        <v>0.320158608339729</v>
       </c>
       <c r="N58" t="n">
         <v>0.34375</v>
@@ -4559,11 +4494,10 @@
       <c r="W58"/>
       <c r="X58"/>
       <c r="Y58"/>
-      <c r="Z58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" t="n">
         <v>0.208039913617236</v>
@@ -4597,7 +4531,7 @@
         <v>0.359823399558499</v>
       </c>
       <c r="M59" t="n">
-        <v>0.40881445570736</v>
+        <v>0.406074738768522</v>
       </c>
       <c r="N59" t="n">
         <v>0.708333333333333</v>
@@ -4610,7 +4544,7 @@
       </c>
       <c r="Q59"/>
       <c r="R59" t="n">
-        <v>0.626984126984127</v>
+        <v>0.731481481481481</v>
       </c>
       <c r="S59" t="n">
         <v>0.151018099547511</v>
@@ -4620,16 +4554,15 @@
         <v>0.86025641025641</v>
       </c>
       <c r="V59" t="n">
-        <v>0.0380434782608696</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="W59"/>
       <c r="X59"/>
       <c r="Y59"/>
-      <c r="Z59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B60" t="n">
         <v>0.325757769754082</v>
@@ -4663,7 +4596,7 @@
         <v>0.525386313465784</v>
       </c>
       <c r="M60" t="n">
-        <v>0.504088928064248</v>
+        <v>0.501790739319519</v>
       </c>
       <c r="N60" t="n">
         <v>0.666666666666667</v>
@@ -4678,7 +4611,7 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="R60" t="n">
-        <v>0.563492063492063</v>
+        <v>0.657407407407407</v>
       </c>
       <c r="S60" t="n">
         <v>0.143665158371041</v>
@@ -4690,18 +4623,17 @@
         <v>0.775641025641026</v>
       </c>
       <c r="V60" t="n">
-        <v>0.0561594202898551</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="W60"/>
-      <c r="X60"/>
-      <c r="Y60" t="n">
-        <v>0.0989292364990689</v>
-      </c>
-      <c r="Z60"/>
+      <c r="X60" t="n">
+        <v>0.265293383270911</v>
+      </c>
+      <c r="Y60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61" t="n">
         <v>0.207899072153509</v>
@@ -4737,7 +4669,7 @@
         <v>0.252207505518764</v>
       </c>
       <c r="M61" t="n">
-        <v>0.388541207580432</v>
+        <v>0.385707538815751</v>
       </c>
       <c r="N61"/>
       <c r="O61" t="n">
@@ -4748,7 +4680,7 @@
       </c>
       <c r="Q61"/>
       <c r="R61" t="n">
-        <v>0.531746031746032</v>
+        <v>0.62037037037037</v>
       </c>
       <c r="S61" t="n">
         <v>0.10369532428356</v>
@@ -4761,11 +4693,10 @@
       <c r="W61"/>
       <c r="X61"/>
       <c r="Y61"/>
-      <c r="Z61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62" t="n">
         <v>0.328472168873183</v>
@@ -4797,7 +4728,7 @@
         <v>0.222958057395144</v>
       </c>
       <c r="M62" t="n">
-        <v>0.417452622300573</v>
+        <v>0.414752937009269</v>
       </c>
       <c r="N62"/>
       <c r="O62" t="n">
@@ -4808,7 +4739,7 @@
       </c>
       <c r="Q62"/>
       <c r="R62" t="n">
-        <v>0.388888888888889</v>
+        <v>0.453703703703704</v>
       </c>
       <c r="S62" t="n">
         <v>0.105580693815988</v>
@@ -4820,16 +4751,15 @@
         <v>0.58974358974359</v>
       </c>
       <c r="V62" t="n">
-        <v>0.0289855072463768</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="W62"/>
       <c r="X62"/>
       <c r="Y62"/>
-      <c r="Z62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B63" t="n">
         <v>0.606540165424701</v>
@@ -4861,7 +4791,7 @@
         <v>0.0747792494481236</v>
       </c>
       <c r="M63" t="n">
-        <v>0.13356838548553</v>
+        <v>0.129553102308283</v>
       </c>
       <c r="N63"/>
       <c r="O63" t="n">
@@ -4872,7 +4802,7 @@
       </c>
       <c r="Q63"/>
       <c r="R63" t="n">
-        <v>0.0317460317460317</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="S63" t="n">
         <v>0.900829562594268</v>
@@ -4885,11 +4815,10 @@
       <c r="W63"/>
       <c r="X63"/>
       <c r="Y63"/>
-      <c r="Z63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64" t="n">
         <v>0.374245644584432</v>
@@ -4921,7 +4850,7 @@
         <v>0.0767108167770419</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0913079672885755</v>
+        <v>0.0870968376724325</v>
       </c>
       <c r="N64"/>
       <c r="O64" t="n">
@@ -4943,11 +4872,10 @@
       <c r="W64"/>
       <c r="X64"/>
       <c r="Y64"/>
-      <c r="Z64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65" t="n">
         <v>0.413198979112784</v>
@@ -4981,7 +4909,7 @@
         <v>0.259105960264901</v>
       </c>
       <c r="M65" t="n">
-        <v>0.33888644042897</v>
+        <v>0.335822657772005</v>
       </c>
       <c r="N65"/>
       <c r="O65" t="n">
@@ -4992,7 +4920,7 @@
       </c>
       <c r="Q65"/>
       <c r="R65" t="n">
-        <v>0.0873015873015873</v>
+        <v>0.101851851851852</v>
       </c>
       <c r="S65" t="n">
         <v>0.849547511312217</v>
@@ -5005,11 +4933,10 @@
       <c r="W65"/>
       <c r="X65"/>
       <c r="Y65"/>
-      <c r="Z65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B66" t="n">
         <v>0.443625003200942</v>
@@ -5043,7 +4970,7 @@
         <v>0.175496688741722</v>
       </c>
       <c r="M66" t="n">
-        <v>0.234268645022281</v>
+        <v>0.230720034634079</v>
       </c>
       <c r="N66"/>
       <c r="O66" t="n">
@@ -5065,11 +4992,10 @@
       <c r="W66"/>
       <c r="X66"/>
       <c r="Y66"/>
-      <c r="Z66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67" t="n">
         <v>0.38883767381117</v>
@@ -5101,7 +5027,7 @@
         <v>0.0607064017660044</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0716909064198619</v>
+        <v>0.0673888659306925</v>
       </c>
       <c r="N67"/>
       <c r="O67" t="n">
@@ -5123,11 +5049,10 @@
       <c r="W67"/>
       <c r="X67"/>
       <c r="Y67"/>
-      <c r="Z67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68" t="n">
         <v>0.301204407911022</v>
@@ -5159,7 +5084,7 @@
         <v>0.331401766004415</v>
       </c>
       <c r="M68" t="n">
-        <v>0.151628225845943</v>
+        <v>0.147696636952201</v>
       </c>
       <c r="N68" t="n">
         <v>0.385416666666667</v>
@@ -5172,7 +5097,7 @@
       </c>
       <c r="Q68"/>
       <c r="R68" t="n">
-        <v>0.174603174603175</v>
+        <v>0.203703703703704</v>
       </c>
       <c r="S68" t="n">
         <v>0.473981900452489</v>
@@ -5185,11 +5110,10 @@
       <c r="W68"/>
       <c r="X68"/>
       <c r="Y68"/>
-      <c r="Z68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69" t="n">
         <v>0.382060211859705</v>
@@ -5221,7 +5145,7 @@
         <v>0.4969646799117</v>
       </c>
       <c r="M69" t="n">
-        <v>0.192821115518339</v>
+        <v>0.189080425841746</v>
       </c>
       <c r="N69" t="n">
         <v>0.104166666666667</v>
@@ -5234,7 +5158,7 @@
       </c>
       <c r="Q69"/>
       <c r="R69" t="n">
-        <v>0.142857142857143</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="S69" t="n">
         <v>0.507918552036199</v>
@@ -5245,15 +5169,14 @@
       </c>
       <c r="V69"/>
       <c r="W69"/>
-      <c r="X69"/>
-      <c r="Y69" t="n">
-        <v>0.21415270018622</v>
-      </c>
-      <c r="Z69"/>
+      <c r="X69" t="n">
+        <v>0.574282147315855</v>
+      </c>
+      <c r="Y69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B70" t="n">
         <v>0.229563050028595</v>
@@ -5285,7 +5208,7 @@
         <v>0.231236203090508</v>
       </c>
       <c r="M70" t="n">
-        <v>0.394936584888105</v>
+        <v>0.392132554066553</v>
       </c>
       <c r="N70" t="n">
         <v>0.5625</v>
@@ -5298,7 +5221,7 @@
       </c>
       <c r="Q70"/>
       <c r="R70" t="n">
-        <v>0.595238095238095</v>
+        <v>0.694444444444444</v>
       </c>
       <c r="S70" t="n">
         <v>0.126885369532428</v>
@@ -5313,11 +5236,10 @@
       <c r="W70"/>
       <c r="X70"/>
       <c r="Y70"/>
-      <c r="Z70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71" t="n">
         <v>0.302403694314273</v>
@@ -5349,7 +5271,7 @@
         <v>0.322847682119205</v>
       </c>
       <c r="M71" t="n">
-        <v>0.47496204887126</v>
+        <v>0.472528878131334</v>
       </c>
       <c r="N71" t="n">
         <v>0.822916666666667</v>
@@ -5362,7 +5284,7 @@
       </c>
       <c r="Q71"/>
       <c r="R71" t="n">
-        <v>0.634920634920635</v>
+        <v>0.740740740740741</v>
       </c>
       <c r="S71" t="n">
         <v>0.112933634992459</v>
@@ -5372,16 +5294,15 @@
         <v>0.643589743589744</v>
       </c>
       <c r="V71" t="n">
-        <v>0.0434782608695652</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="W71"/>
       <c r="X71"/>
       <c r="Y71"/>
-      <c r="Z71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B72" t="n">
         <v>0.181105050660248</v>
@@ -5415,7 +5336,7 @@
         <v>0.164183222958057</v>
       </c>
       <c r="M72" t="n">
-        <v>0.305753880808971</v>
+        <v>0.302536552728418</v>
       </c>
       <c r="N72" t="n">
         <v>0.177083333333333</v>
@@ -5430,7 +5351,7 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="R72" t="n">
-        <v>0.261904761904762</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="S72" t="n">
         <v>0.0116892911010558</v>
@@ -5445,11 +5366,10 @@
       <c r="W72"/>
       <c r="X72"/>
       <c r="Y72"/>
-      <c r="Z72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73" t="n">
         <v>0.216460525978848</v>
@@ -5481,7 +5401,7 @@
         <v>0.365618101545254</v>
       </c>
       <c r="M73" t="n">
-        <v>0.316047206307233</v>
+        <v>0.312877580337289</v>
       </c>
       <c r="N73" t="n">
         <v>0.260416666666667</v>
@@ -5494,7 +5414,7 @@
       </c>
       <c r="Q73"/>
       <c r="R73" t="n">
-        <v>0.317460317460317</v>
+        <v>0.37037037037037</v>
       </c>
       <c r="S73" t="n">
         <v>0.00867269984917044</v>
@@ -5509,11 +5429,10 @@
       <c r="W73"/>
       <c r="X73"/>
       <c r="Y73"/>
-      <c r="Z73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B74" t="n">
         <v>0.17139979343252</v>
@@ -5545,7 +5464,7 @@
         <v>0.225441501103753</v>
       </c>
       <c r="M74" t="n">
-        <v>0.4188825228931</v>
+        <v>0.416189464155696</v>
       </c>
       <c r="N74" t="n">
         <v>0.15625</v>
@@ -5558,7 +5477,7 @@
       </c>
       <c r="Q74"/>
       <c r="R74" t="n">
-        <v>0.261904761904762</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="S74" t="n">
         <v>0.0213046757164404</v>
@@ -5573,11 +5492,10 @@
       <c r="W74"/>
       <c r="X74"/>
       <c r="Y74"/>
-      <c r="Z74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" t="n">
         <v>0.455724565312028</v>
@@ -5611,7 +5529,7 @@
         <v>0.31705298013245</v>
       </c>
       <c r="M75" t="n">
-        <v>0.324469908427599</v>
+        <v>0.321339315583368</v>
       </c>
       <c r="N75"/>
       <c r="O75" t="n">
@@ -5633,11 +5551,10 @@
       <c r="W75"/>
       <c r="X75"/>
       <c r="Y75"/>
-      <c r="Z75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76" t="n">
         <v>0.482194224646402</v>
@@ -5671,7 +5588,7 @@
         <v>0.266832229580574</v>
       </c>
       <c r="M76" t="n">
-        <v>0.360511238431027</v>
+        <v>0.357547671054962</v>
       </c>
       <c r="N76"/>
       <c r="O76" t="n">
@@ -5693,11 +5610,10 @@
       <c r="W76"/>
       <c r="X76"/>
       <c r="Y76"/>
-      <c r="Z76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B77"/>
       <c r="C77" t="n">
@@ -5727,7 +5643,7 @@
         <v>0.198399558498896</v>
       </c>
       <c r="M77" t="n">
-        <v>0.345565839087214</v>
+        <v>0.342533010606687</v>
       </c>
       <c r="N77" t="n">
         <v>0.25</v>
@@ -5740,7 +5656,7 @@
       </c>
       <c r="Q77"/>
       <c r="R77" t="n">
-        <v>0.309523809523809</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="S77" t="n">
         <v>0.040158371040724</v>
@@ -5755,11 +5671,10 @@
       <c r="W77"/>
       <c r="X77"/>
       <c r="Y77"/>
-      <c r="Z77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78" t="n">
         <v>0.210664686350328</v>
@@ -5793,7 +5708,7 @@
         <v>0.466887417218543</v>
       </c>
       <c r="M78" t="n">
-        <v>0.744850888790951</v>
+        <v>0.743668457405986</v>
       </c>
       <c r="N78" t="n">
         <v>0.302083333333333</v>
@@ -5808,7 +5723,7 @@
         <v>0.133333333333333</v>
       </c>
       <c r="R78" t="n">
-        <v>0.452380952380952</v>
+        <v>0.527777777777778</v>
       </c>
       <c r="S78" t="n">
         <v>0.0239441930618401</v>
@@ -5820,16 +5735,15 @@
         <v>0.347435897435897</v>
       </c>
       <c r="V78" t="n">
-        <v>0.016304347826087</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="W78"/>
       <c r="X78"/>
       <c r="Y78"/>
-      <c r="Z78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79" t="n">
         <v>0.119813406400178</v>
@@ -5861,7 +5775,7 @@
         <v>0.257726269315673</v>
       </c>
       <c r="M79" t="n">
-        <v>0.485715684834239</v>
+        <v>0.48333234941063</v>
       </c>
       <c r="N79" t="n">
         <v>0.25</v>
@@ -5876,7 +5790,7 @@
         <v>0.2</v>
       </c>
       <c r="R79" t="n">
-        <v>0.349206349206349</v>
+        <v>0.407407407407407</v>
       </c>
       <c r="S79" t="n">
         <v>0.0271493212669683</v>
@@ -5891,11 +5805,10 @@
       <c r="W79"/>
       <c r="X79"/>
       <c r="Y79"/>
-      <c r="Z79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" t="n">
         <v>0.153325138920898</v>
@@ -5931,7 +5844,7 @@
         <v>0.227373068432671</v>
       </c>
       <c r="M80" t="n">
-        <v>0.652357866901719</v>
+        <v>0.650746797331602</v>
       </c>
       <c r="N80" t="n">
         <v>0.291666666666667</v>
@@ -5946,7 +5859,7 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="R80" t="n">
-        <v>0.468253968253968</v>
+        <v>0.546296296296296</v>
       </c>
       <c r="S80" t="n">
         <v>0.0360105580693816</v>
@@ -5958,16 +5871,15 @@
         <v>0.698717948717949</v>
       </c>
       <c r="V80" t="n">
-        <v>0.0217391304347826</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="W80"/>
       <c r="X80"/>
       <c r="Y80"/>
-      <c r="Z80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81" t="n">
         <v>0.134759673247804</v>
@@ -6001,7 +5913,7 @@
         <v>0.213300220750552</v>
       </c>
       <c r="M81" t="n">
-        <v>0.490436315557514</v>
+        <v>0.488074856839247</v>
       </c>
       <c r="N81" t="n">
         <v>0.291666666666667</v>
@@ -6014,7 +5926,7 @@
       </c>
       <c r="Q81"/>
       <c r="R81" t="n">
-        <v>0.373015873015873</v>
+        <v>0.435185185185185</v>
       </c>
       <c r="S81" t="n">
         <v>0.0352564102564103</v>
@@ -6029,11 +5941,10 @@
       <c r="W81"/>
       <c r="X81"/>
       <c r="Y81"/>
-      <c r="Z81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82" t="n">
         <v>0.0966513875018139</v>
@@ -6067,7 +5978,7 @@
         <v>0.317604856512141</v>
       </c>
       <c r="M82" t="n">
-        <v>0.494784780373145</v>
+        <v>0.492443473640711</v>
       </c>
       <c r="N82" t="n">
         <v>0.40625</v>
@@ -6080,7 +5991,7 @@
       </c>
       <c r="Q82"/>
       <c r="R82" t="n">
-        <v>0.404761904761905</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="S82" t="n">
         <v>0.0316742081447964</v>
@@ -6092,16 +6003,15 @@
         <v>0.588461538461538</v>
       </c>
       <c r="V82" t="n">
-        <v>0.0199275362318841</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W82"/>
       <c r="X82"/>
       <c r="Y82"/>
-      <c r="Z82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B83" t="n">
         <v>0.182206174831204</v>
@@ -6137,7 +6047,7 @@
         <v>0.217991169977925</v>
       </c>
       <c r="M83" t="n">
-        <v>0.502042015572205</v>
+        <v>0.499734340870181</v>
       </c>
       <c r="N83" t="n">
         <v>0.28125</v>
@@ -6152,7 +6062,7 @@
         <v>0.0666666666666667</v>
       </c>
       <c r="R83" t="n">
-        <v>0.396825396825397</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="S83" t="n">
         <v>0.0361990950226244</v>
@@ -6164,632 +6074,558 @@
         <v>0.698717948717949</v>
       </c>
       <c r="V83" t="n">
-        <v>0.0199275362318841</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W83"/>
       <c r="X83"/>
       <c r="Y83"/>
-      <c r="Z83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84" t="n">
-        <v>0.625195257483803</v>
+        <v>0.451311532781918</v>
       </c>
       <c r="C84" t="n">
-        <v>0.164558642603624</v>
+        <v>0.0813647132408694</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0262851773969845</v>
+        <v>0.0277255802623795</v>
       </c>
       <c r="E84" t="n">
-        <v>0.495864513588027</v>
+        <v>0.268767231193383</v>
       </c>
       <c r="F84" t="n">
-        <v>0.117142563681183</v>
+        <v>0.128201177759518</v>
       </c>
       <c r="G84" t="n">
-        <v>0.204295442640126</v>
+        <v>0.158983761131482</v>
       </c>
       <c r="H84"/>
       <c r="I84" t="n">
-        <v>0.962252043795061</v>
+        <v>0.606562746615383</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0747616658304064</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.0619834710743802</v>
-      </c>
+        <v>0.0605452416792106</v>
+      </c>
+      <c r="K84"/>
       <c r="L84" t="n">
-        <v>0.0322847682119205</v>
+        <v>0.0146247240618102</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0806228882033201</v>
+        <v>0.0781431410748372</v>
       </c>
       <c r="N84"/>
       <c r="O84" t="n">
-        <v>0.293577981651376</v>
+        <v>0.250764525993884</v>
       </c>
       <c r="P84" t="n">
-        <v>0.027027027027027</v>
+        <v>0.0630630630630631</v>
       </c>
       <c r="Q84"/>
       <c r="R84" t="n">
-        <v>0.0952380952380952</v>
+        <v>0.157407407407407</v>
       </c>
       <c r="S84" t="n">
-        <v>0.427601809954751</v>
+        <v>0.402714932126697</v>
       </c>
       <c r="T84"/>
       <c r="U84" t="n">
-        <v>0.157692307692308</v>
+        <v>0.125641025641026</v>
       </c>
       <c r="V84"/>
       <c r="W84"/>
-      <c r="X84" t="n">
-        <v>0.0543478260869564</v>
-      </c>
+      <c r="X84"/>
       <c r="Y84"/>
-      <c r="Z84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B85" t="n">
-        <v>0.451311532781918</v>
+        <v>0.566421687878245</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0813647132408694</v>
+        <v>0.125360311320783</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0277255802623795</v>
+        <v>0.0755571463369772</v>
       </c>
       <c r="E85" t="n">
-        <v>0.268767231193383</v>
+        <v>0.447131416568203</v>
       </c>
       <c r="F85" t="n">
-        <v>0.128201177759518</v>
+        <v>0.17909476855656</v>
       </c>
       <c r="G85" t="n">
-        <v>0.158983761131482</v>
+        <v>0.119172341540073</v>
       </c>
       <c r="H85"/>
       <c r="I85" t="n">
-        <v>0.606562746615383</v>
+        <v>0.653327408179267</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0605452416792106</v>
+        <v>0.0895355968110609</v>
       </c>
       <c r="K85"/>
       <c r="L85" t="n">
-        <v>0.0146247240618102</v>
+        <v>0.0328366445916115</v>
       </c>
       <c r="M85" t="n">
-        <v>0.082395573184467</v>
+        <v>0.0855127221205502</v>
       </c>
       <c r="N85"/>
       <c r="O85" t="n">
-        <v>0.250764525993884</v>
+        <v>0.27217125382263</v>
       </c>
       <c r="P85" t="n">
-        <v>0.0630630630630631</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q85"/>
-      <c r="R85" t="n">
-        <v>0.134920634920635</v>
-      </c>
+      <c r="R85"/>
       <c r="S85" t="n">
-        <v>0.402714932126697</v>
+        <v>0.307126696832579</v>
       </c>
       <c r="T85"/>
       <c r="U85" t="n">
-        <v>0.125641025641026</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="V85"/>
       <c r="W85"/>
       <c r="X85"/>
       <c r="Y85"/>
-      <c r="Z85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B86" t="n">
-        <v>0.566421687878245</v>
+        <v>0.576728722269169</v>
       </c>
       <c r="C86" t="n">
-        <v>0.125360311320783</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.0755571463369772</v>
-      </c>
+        <v>0.0948743594055638</v>
+      </c>
+      <c r="D86"/>
       <c r="E86" t="n">
-        <v>0.447131416568203</v>
+        <v>0.422318498096363</v>
       </c>
       <c r="F86" t="n">
-        <v>0.17909476855656</v>
+        <v>0.0901978909887702</v>
       </c>
       <c r="G86" t="n">
-        <v>0.119172341540073</v>
+        <v>0.167888947092719</v>
       </c>
       <c r="H86"/>
       <c r="I86" t="n">
-        <v>0.653327408179267</v>
+        <v>0.908831799688929</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0895355968110609</v>
+        <v>0.0219657690806712</v>
       </c>
       <c r="K86"/>
       <c r="L86" t="n">
-        <v>0.0328366445916115</v>
+        <v>0.0242825607064018</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0897311591009255</v>
+        <v>0.116161914320011</v>
       </c>
       <c r="N86"/>
       <c r="O86" t="n">
-        <v>0.27217125382263</v>
+        <v>0.259938837920489</v>
       </c>
       <c r="P86" t="n">
-        <v>0.166666666666667</v>
+        <v>0.045045045045045</v>
       </c>
       <c r="Q86"/>
       <c r="R86"/>
       <c r="S86" t="n">
-        <v>0.307126696832579</v>
+        <v>0.332956259426848</v>
       </c>
       <c r="T86"/>
       <c r="U86" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.0551282051282051</v>
       </c>
       <c r="V86"/>
       <c r="W86"/>
       <c r="X86"/>
       <c r="Y86"/>
-      <c r="Z86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B87" t="n">
-        <v>0.576728722269169</v>
+        <v>0.80193849069166</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0948743594055638</v>
-      </c>
-      <c r="D87"/>
+        <v>0.346751518691933</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.38637408716488</v>
+      </c>
       <c r="E87" t="n">
-        <v>0.422318498096363</v>
+        <v>0.861310227123539</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0901978909887702</v>
+        <v>0.860123938646946</v>
       </c>
       <c r="G87" t="n">
-        <v>0.167888947092719</v>
-      </c>
-      <c r="H87"/>
+        <v>0.170857342413131</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.664253418767857</v>
+      </c>
       <c r="I87" t="n">
-        <v>0.908831799688929</v>
+        <v>0.502260880447247</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0219657690806712</v>
+        <v>0.410771031945141</v>
       </c>
       <c r="K87"/>
       <c r="L87" t="n">
-        <v>0.0242825607064018</v>
+        <v>0.180739514348786</v>
       </c>
       <c r="M87" t="n">
-        <v>0.120238969688066</v>
+        <v>0.478009327587225</v>
       </c>
       <c r="N87"/>
       <c r="O87" t="n">
-        <v>0.259938837920489</v>
+        <v>0.357798165137615</v>
       </c>
       <c r="P87" t="n">
-        <v>0.045045045045045</v>
+        <v>0.689189189189189</v>
       </c>
       <c r="Q87"/>
-      <c r="R87"/>
+      <c r="R87" t="n">
+        <v>0.453703703703704</v>
+      </c>
       <c r="S87" t="n">
-        <v>0.332956259426848</v>
-      </c>
-      <c r="T87"/>
+        <v>0.26263197586727</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.2</v>
+      </c>
       <c r="U87" t="n">
-        <v>0.0551282051282051</v>
+        <v>0.284615384615385</v>
       </c>
       <c r="V87"/>
-      <c r="W87"/>
+      <c r="W87" t="n">
+        <v>0.412698412698413</v>
+      </c>
       <c r="X87"/>
       <c r="Y87"/>
-      <c r="Z87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B88" t="n">
-        <v>0.80193849069166</v>
+        <v>0.702222734372999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.346751518691933</v>
+        <v>0.403648991128302</v>
       </c>
       <c r="D88" t="n">
-        <v>0.38637408716488</v>
+        <v>0.408590965355763</v>
       </c>
       <c r="E88" t="n">
-        <v>0.861310227123539</v>
+        <v>0.814257581725089</v>
       </c>
       <c r="F88" t="n">
-        <v>0.860123938646946</v>
+        <v>0.554676800876472</v>
       </c>
       <c r="G88" t="n">
-        <v>0.170857342413131</v>
+        <v>0.110354461323555</v>
       </c>
       <c r="H88" t="n">
-        <v>0.664253418767857</v>
+        <v>0.726193448170647</v>
       </c>
       <c r="I88" t="n">
-        <v>0.502260880447247</v>
+        <v>0.475457220132243</v>
       </c>
       <c r="J88" t="n">
-        <v>0.410771031945141</v>
+        <v>0.469364999721247</v>
       </c>
       <c r="K88"/>
       <c r="L88" t="n">
-        <v>0.180739514348786</v>
+        <v>0.231512141280353</v>
       </c>
       <c r="M88" t="n">
-        <v>0.480417217570148</v>
-      </c>
-      <c r="N88"/>
+        <v>0.570842434618336</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.354166666666667</v>
+      </c>
       <c r="O88" t="n">
-        <v>0.357798165137615</v>
+        <v>0.409785932721713</v>
       </c>
       <c r="P88" t="n">
-        <v>0.689189189189189</v>
+        <v>0.684684684684685</v>
       </c>
       <c r="Q88"/>
       <c r="R88" t="n">
-        <v>0.388888888888889</v>
+        <v>0.537037037037037</v>
       </c>
       <c r="S88" t="n">
-        <v>0.26263197586727</v>
+        <v>0.2526395173454</v>
       </c>
       <c r="T88" t="n">
-        <v>0.2</v>
+        <v>0.346666666666667</v>
       </c>
       <c r="U88" t="n">
-        <v>0.284615384615385</v>
-      </c>
-      <c r="V88"/>
-      <c r="W88" t="n">
-        <v>0.0337224383916991</v>
-      </c>
+        <v>0.314102564102564</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="W88"/>
       <c r="X88"/>
       <c r="Y88"/>
-      <c r="Z88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B89" t="n">
-        <v>0.702222734372999</v>
+        <v>0.521561547719649</v>
       </c>
       <c r="C89" t="n">
-        <v>0.403648991128302</v>
+        <v>0.270791844056375</v>
       </c>
       <c r="D89" t="n">
-        <v>0.408590965355763</v>
+        <v>0.222334695439926</v>
       </c>
       <c r="E89" t="n">
-        <v>0.814257581725089</v>
+        <v>0.314480766706052</v>
       </c>
       <c r="F89" t="n">
-        <v>0.554676800876472</v>
+        <v>0.359422076143522</v>
       </c>
       <c r="G89" t="n">
-        <v>0.110354461323555</v>
+        <v>0.319277108433735</v>
       </c>
       <c r="H89" t="n">
-        <v>0.726193448170647</v>
+        <v>0.356633657873568</v>
       </c>
       <c r="I89" t="n">
-        <v>0.475457220132243</v>
+        <v>0.537878845923009</v>
       </c>
       <c r="J89" t="n">
-        <v>0.469364999721247</v>
+        <v>0.395216591403245</v>
       </c>
       <c r="K89"/>
       <c r="L89" t="n">
-        <v>0.231512141280353</v>
+        <v>0.070364238410596</v>
       </c>
       <c r="M89" t="n">
-        <v>0.572822094902306</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.354166666666667</v>
-      </c>
+        <v>0.329358285613082</v>
+      </c>
+      <c r="N89"/>
       <c r="O89" t="n">
-        <v>0.409785932721713</v>
+        <v>0.201834862385321</v>
       </c>
       <c r="P89" t="n">
-        <v>0.684684684684685</v>
+        <v>0.297297297297297</v>
       </c>
       <c r="Q89"/>
       <c r="R89" t="n">
-        <v>0.46031746031746</v>
+        <v>0.361111111111111</v>
       </c>
       <c r="S89" t="n">
-        <v>0.2526395173454</v>
-      </c>
-      <c r="T89" t="n">
-        <v>0.346666666666667</v>
-      </c>
+        <v>0.218325791855204</v>
+      </c>
+      <c r="T89"/>
       <c r="U89" t="n">
-        <v>0.314102564102564</v>
-      </c>
-      <c r="V89" t="n">
-        <v>0.0271739130434783</v>
-      </c>
+        <v>0.220512820512821</v>
+      </c>
+      <c r="V89"/>
       <c r="W89"/>
       <c r="X89"/>
       <c r="Y89"/>
-      <c r="Z89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90" t="n">
-        <v>0.521561547719649</v>
+        <v>0.432703387877391</v>
       </c>
       <c r="C90" t="n">
-        <v>0.270791844056375</v>
+        <v>0.110227973435061</v>
       </c>
       <c r="D90" t="n">
-        <v>0.222334695439926</v>
+        <v>0.301877494916956</v>
       </c>
       <c r="E90" t="n">
-        <v>0.314480766706052</v>
+        <v>0.2855980044637</v>
       </c>
       <c r="F90" t="n">
-        <v>0.359422076143522</v>
+        <v>0.129519309778143</v>
       </c>
       <c r="G90" t="n">
-        <v>0.319277108433735</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.356633657873568</v>
-      </c>
+        <v>0.176619521564519</v>
+      </c>
+      <c r="H90"/>
       <c r="I90" t="n">
-        <v>0.537878845923009</v>
+        <v>0.49113908532988</v>
       </c>
       <c r="J90" t="n">
-        <v>0.395216591403245</v>
+        <v>0.133188381557674</v>
       </c>
       <c r="K90"/>
       <c r="L90" t="n">
-        <v>0.070364238410596</v>
+        <v>0.0303532008830022</v>
       </c>
       <c r="M90" t="n">
-        <v>0.332451887762597</v>
+        <v>0.0909439754412893</v>
       </c>
       <c r="N90"/>
       <c r="O90" t="n">
-        <v>0.201834862385321</v>
+        <v>0.262996941896024</v>
       </c>
       <c r="P90" t="n">
-        <v>0.297297297297297</v>
+        <v>0.202702702702703</v>
       </c>
       <c r="Q90"/>
-      <c r="R90" t="n">
-        <v>0.309523809523809</v>
-      </c>
+      <c r="R90"/>
       <c r="S90" t="n">
-        <v>0.218325791855204</v>
+        <v>0.455693815987934</v>
       </c>
       <c r="T90"/>
       <c r="U90" t="n">
-        <v>0.220512820512821</v>
+        <v>0.148717948717949</v>
       </c>
       <c r="V90"/>
       <c r="W90"/>
       <c r="X90"/>
       <c r="Y90"/>
-      <c r="Z90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B91" t="n">
-        <v>0.432703387877391</v>
+        <v>0.389260198202351</v>
       </c>
       <c r="C91" t="n">
-        <v>0.110227973435061</v>
+        <v>0.214711618177688</v>
       </c>
       <c r="D91" t="n">
-        <v>0.301877494916956</v>
+        <v>0.319172893084575</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2855980044637</v>
+        <v>0.673913614283839</v>
       </c>
       <c r="F91" t="n">
-        <v>0.129519309778143</v>
+        <v>0.075955217748562</v>
       </c>
       <c r="G91" t="n">
-        <v>0.176619521564519</v>
-      </c>
-      <c r="H91"/>
+        <v>0.149205517723066</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.47629746747663</v>
+      </c>
       <c r="I91" t="n">
-        <v>0.49113908532988</v>
+        <v>0.461330069390705</v>
       </c>
       <c r="J91" t="n">
-        <v>0.133188381557674</v>
+        <v>0.311702068350337</v>
       </c>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>0.0303532008830022</v>
+        <v>0.0943708609271523</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0951373586014397</v>
+        <v>0.263287876104453</v>
       </c>
       <c r="N91"/>
       <c r="O91" t="n">
-        <v>0.262996941896024</v>
+        <v>0.27217125382263</v>
       </c>
       <c r="P91" t="n">
-        <v>0.202702702702703</v>
+        <v>0.495495495495495</v>
       </c>
       <c r="Q91"/>
-      <c r="R91"/>
+      <c r="R91" t="n">
+        <v>0.305555555555556</v>
+      </c>
       <c r="S91" t="n">
-        <v>0.455693815987934</v>
+        <v>0.28393665158371</v>
       </c>
       <c r="T91"/>
       <c r="U91" t="n">
-        <v>0.148717948717949</v>
+        <v>0.191025641025641</v>
       </c>
       <c r="V91"/>
       <c r="W91"/>
-      <c r="X91"/>
+      <c r="X91" t="n">
+        <v>0.214731585518102</v>
+      </c>
       <c r="Y91"/>
-      <c r="Z91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B92" t="n">
-        <v>0.389260198202351</v>
+        <v>0.511096600172424</v>
       </c>
       <c r="C92" t="n">
-        <v>0.214711618177688</v>
+        <v>0.251478862227572</v>
       </c>
       <c r="D92" t="n">
-        <v>0.319172893084575</v>
+        <v>0.322758986672234</v>
       </c>
       <c r="E92" t="n">
-        <v>0.673913614283839</v>
+        <v>0.595720099776815</v>
       </c>
       <c r="F92" t="n">
-        <v>0.075955217748562</v>
+        <v>0.249811695425911</v>
       </c>
       <c r="G92" t="n">
-        <v>0.149205517723066</v>
+        <v>0.953727955299459</v>
       </c>
       <c r="H92" t="n">
-        <v>0.47629746747663</v>
+        <v>0.572272613797121</v>
       </c>
       <c r="I92" t="n">
-        <v>0.461330069390705</v>
+        <v>0.461489052511678</v>
       </c>
       <c r="J92" t="n">
-        <v>0.311702068350337</v>
+        <v>0.307130512348776</v>
       </c>
       <c r="K92"/>
       <c r="L92" t="n">
-        <v>0.0943708609271523</v>
+        <v>0.162251655629139</v>
       </c>
       <c r="M92" t="n">
-        <v>0.266686254346016</v>
-      </c>
-      <c r="N92"/>
+        <v>0.365133715095342</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.1875</v>
+      </c>
       <c r="O92" t="n">
         <v>0.27217125382263</v>
       </c>
       <c r="P92" t="n">
-        <v>0.495495495495495</v>
+        <v>0.657657657657658</v>
       </c>
       <c r="Q92"/>
       <c r="R92" t="n">
-        <v>0.261904761904762</v>
+        <v>0.453703703703704</v>
       </c>
       <c r="S92" t="n">
-        <v>0.28393665158371</v>
+        <v>0.283748114630468</v>
       </c>
       <c r="T92"/>
       <c r="U92" t="n">
-        <v>0.191025641025641</v>
+        <v>0.247435897435897</v>
       </c>
       <c r="V92"/>
       <c r="W92"/>
       <c r="X92"/>
-      <c r="Y92" t="n">
-        <v>0.0800744878957169</v>
-      </c>
-      <c r="Z92"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>117</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.511096600172424</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.251478862227572</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.322758986672234</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.595720099776815</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.249811695425911</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.953727955299459</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.572272613797121</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.461489052511678</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.307130512348776</v>
-      </c>
-      <c r="K93"/>
-      <c r="L93" t="n">
-        <v>0.162251655629139</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.368062288820332</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0.27217125382263</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0.657657657657658</v>
-      </c>
-      <c r="Q93"/>
-      <c r="R93" t="n">
-        <v>0.388888888888889</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0.283748114630468</v>
-      </c>
-      <c r="T93"/>
-      <c r="U93" t="n">
-        <v>0.247435897435897</v>
-      </c>
-      <c r="V93"/>
-      <c r="W93"/>
-      <c r="X93"/>
-      <c r="Y93"/>
-      <c r="Z93"/>
+      <c r="Y92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/n1-pXRF.xlsx
+++ b/data/n1-pXRF.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve">Sample</t>
   </si>
@@ -80,172 +80,175 @@
     <t xml:space="preserve">Nb</t>
   </si>
   <si>
-    <t xml:space="preserve">Rh</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ag</t>
   </si>
   <si>
+    <t xml:space="preserve">Ba</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pb</t>
   </si>
   <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP-9</t>
+    <t xml:space="preserve">AY-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AY-9</t>
   </si>
 </sst>
 </file>
@@ -658,39 +661,63 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="B2" t="n">
+        <v>0.329576646107146</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.367724067988337</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.546435570311807</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.301404853128991</v>
+      </c>
       <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="G2" t="n">
+        <v>0.28390522875817</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.588970518080336</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.203043045071517</v>
+      </c>
       <c r="J2" t="n">
-        <v>0.0583332014246142</v>
+        <v>0.490628798055396</v>
       </c>
       <c r="K2"/>
       <c r="L2" t="n">
-        <v>0.122185031463382</v>
+        <v>0.344843462246777</v>
       </c>
       <c r="M2" t="n">
-        <v>0.378663427472416</v>
+        <v>0.475629363460771</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0232237398229301</v>
-      </c>
-      <c r="P2"/>
+        <v>0.343434343434343</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.655172413793103</v>
+      </c>
       <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
+      <c r="R2" t="n">
+        <v>0.649122807017544</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0664916885389326</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.5</v>
+      </c>
       <c r="U2" t="n">
-        <v>0.0457433290978399</v>
-      </c>
-      <c r="V2"/>
+        <v>0.242424242424242</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.181818181818182</v>
+      </c>
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
@@ -699,37 +726,61 @@
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
+      <c r="B3" t="n">
+        <v>0.355292192764341</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.551961539586726</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.702313256474458</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.289097875304772</v>
+      </c>
       <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
+      <c r="G3" t="n">
+        <v>0.657679738562091</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.658238717679611</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.273532938176537</v>
+      </c>
       <c r="J3" t="n">
-        <v>0.0262508903838544</v>
+        <v>0.521205142966801</v>
       </c>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>0.0720578390681483</v>
+        <v>0.354051565377532</v>
       </c>
       <c r="M3" t="n">
-        <v>0.281701386780038</v>
+        <v>0.467158719368101</v>
       </c>
       <c r="N3" t="n">
-        <v>0.290909090909091</v>
+        <v>0.297619047619048</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0192196467500111</v>
-      </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
+        <v>0.343434343434343</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.344827586206897</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.43859649122807</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0853018372703412</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.333333333333333</v>
+      </c>
       <c r="U3" t="n">
-        <v>0.00397768079111651</v>
+        <v>0.326118326118326</v>
       </c>
       <c r="V3"/>
       <c r="W3"/>
@@ -740,39 +791,63 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="B4" t="n">
+        <v>0.329242957556969</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.35349969607432</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.506240579896237</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.366538952745849</v>
+      </c>
       <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
+      <c r="G4" t="n">
+        <v>0.223039215686275</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.569729351524982</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.138478815205093</v>
+      </c>
       <c r="J4" t="n">
-        <v>0.0760554016620499</v>
+        <v>0.501055459604682</v>
       </c>
       <c r="K4"/>
       <c r="L4" t="n">
-        <v>0.10844825277815</v>
+        <v>0.440147329650092</v>
       </c>
       <c r="M4" t="n">
-        <v>0.470727806458143</v>
+        <v>0.510957884173384</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0192196467500111</v>
-      </c>
-      <c r="P4"/>
+        <v>0.323232323232323</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.839080459770115</v>
+      </c>
       <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="R4" t="n">
+        <v>0.859649122807018</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0721784776902887</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.592592592592593</v>
+      </c>
       <c r="U4" t="n">
-        <v>0.0626484724600851</v>
-      </c>
-      <c r="V4"/>
+        <v>0.303030303030303</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.393939393939394</v>
+      </c>
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
@@ -781,37 +856,61 @@
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="B5" t="n">
+        <v>0.436615321686526</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.352635051894904</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.548667351487192</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.198537095088819</v>
+      </c>
       <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="G5" t="n">
+        <v>0.277369281045752</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.43599529307</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.235923805663914</v>
+      </c>
       <c r="J5" t="n">
-        <v>0.0713826671943015</v>
-      </c>
-      <c r="K5"/>
+        <v>0.404784750207894</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0593607305936073</v>
+      </c>
       <c r="L5" t="n">
-        <v>0.118088097469541</v>
+        <v>0.177255985267035</v>
       </c>
       <c r="M5" t="n">
-        <v>0.377570199412896</v>
+        <v>0.348591283329557</v>
       </c>
       <c r="N5" t="n">
-        <v>0.654545454545455</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0208212839791787</v>
-      </c>
-      <c r="P5"/>
+        <v>0.272727272727273</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.298850574712644</v>
+      </c>
       <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
+      <c r="R5" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.0883639545056868</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.351851851851852</v>
+      </c>
       <c r="U5" t="n">
-        <v>0.0447489089000608</v>
+        <v>0.352092352092352</v>
       </c>
       <c r="V5"/>
       <c r="W5"/>
@@ -822,39 +921,65 @@
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
+      <c r="B6" t="n">
+        <v>0.4875189718087</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.649841861130344</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.86474641768549</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.327295947985603</v>
+      </c>
       <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
+      <c r="G6" t="n">
+        <v>0.258169934640523</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.673663454504977</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.373016194673827</v>
+      </c>
       <c r="J6" t="n">
-        <v>0.0687043925603482</v>
-      </c>
-      <c r="K6"/>
+        <v>0.622337363270006</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.294520547945205</v>
+      </c>
       <c r="L6" t="n">
-        <v>0.10242334984603</v>
+        <v>0.36279926335175</v>
       </c>
       <c r="M6" t="n">
-        <v>0.442639133515538</v>
+        <v>0.583481704487823</v>
       </c>
       <c r="N6" t="n">
-        <v>0.618181818181818</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0184188281354273</v>
-      </c>
-      <c r="P6"/>
+        <v>0.383838383838384</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.413793103448276</v>
+      </c>
       <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
+      <c r="R6" t="n">
+        <v>0.385964912280702</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.104549431321085</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.481481481481482</v>
+      </c>
       <c r="U6" t="n">
-        <v>0.0367935473178277</v>
-      </c>
-      <c r="V6"/>
+        <v>0.395382395382395</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.121212121212121</v>
+      </c>
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
@@ -863,37 +988,59 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
+      <c r="B7" t="n">
+        <v>0.355679702048417</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.422716738016064</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.667643453085208</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.172181585974689</v>
+      </c>
       <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+      <c r="G7" t="n">
+        <v>0.227941176470588</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.48513182584359</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.253513349207153</v>
+      </c>
       <c r="J7" t="n">
-        <v>0.0683624851602691</v>
+        <v>0.412013049318749</v>
       </c>
       <c r="K7"/>
       <c r="L7" t="n">
-        <v>0.10796626054358</v>
+        <v>0.14963167587477</v>
       </c>
       <c r="M7" t="n">
-        <v>0.549163275635186</v>
+        <v>0.353490229085063</v>
       </c>
       <c r="N7" t="n">
-        <v>0.345454545454545</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0336343818125195</v>
-      </c>
-      <c r="P7"/>
+        <v>0.252525252525252</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.229885057471264</v>
+      </c>
       <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
+      <c r="R7" t="n">
+        <v>0.228070175438596</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0402449693788277</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.240740740740741</v>
+      </c>
       <c r="U7" t="n">
-        <v>0.0477321694933982</v>
+        <v>0.0937950937950938</v>
       </c>
       <c r="V7"/>
       <c r="W7"/>
@@ -904,39 +1051,65 @@
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="B8" t="n">
+        <v>0.659756084433967</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.435972448405772</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.737917809308056</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.256008359456635</v>
+      </c>
       <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+      <c r="G8" t="n">
+        <v>0.90359477124183</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.601437521864962</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.294579259334313</v>
+      </c>
       <c r="J8" t="n">
-        <v>0.1039208547685</v>
-      </c>
-      <c r="K8"/>
+        <v>0.617156016119747</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.15296803652968</v>
+      </c>
       <c r="L8" t="n">
-        <v>0.128932922747356</v>
+        <v>0.274861878453039</v>
       </c>
       <c r="M8" t="n">
-        <v>0.610238283227047</v>
+        <v>0.535506566098001</v>
       </c>
       <c r="N8" t="n">
-        <v>0.472727272727273</v>
+        <v>0.273809523809524</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0168171909062597</v>
-      </c>
-      <c r="P8"/>
+        <v>0.303030303030303</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.448275862068965</v>
+      </c>
       <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
+      <c r="R8" t="n">
+        <v>0.578947368421053</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.0953630796150481</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.425925925925926</v>
+      </c>
       <c r="U8" t="n">
-        <v>0.0397768079111651</v>
-      </c>
-      <c r="V8"/>
+        <v>0.489177489177489</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.121212121212121</v>
+      </c>
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
@@ -945,37 +1118,63 @@
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
+      <c r="B9" t="n">
+        <v>0.500823457228663</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.357345087293306</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.521756809225511</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.21258562637873</v>
+      </c>
       <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="G9" t="n">
+        <v>0.180555555555556</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.577330407403874</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.17224783423679</v>
+      </c>
       <c r="J9" t="n">
-        <v>0.0462524732884844</v>
-      </c>
-      <c r="K9"/>
+        <v>0.488709780592337</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.141552511415525</v>
+      </c>
       <c r="L9" t="n">
-        <v>0.0833846565805329</v>
+        <v>0.260128913443831</v>
       </c>
       <c r="M9" t="n">
-        <v>0.347703208826804</v>
+        <v>0.448814649358497</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4</v>
+        <v>0.392857142857143</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0288294701250167</v>
-      </c>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
+        <v>0.262626262626263</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.574712643678161</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.596491228070175</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0704286964129484</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.407407407407407</v>
+      </c>
       <c r="U9" t="n">
-        <v>0.0417656483067234</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V9"/>
       <c r="W9"/>
@@ -986,37 +1185,63 @@
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
+      <c r="B10" t="n">
+        <v>0.531103002120537</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.450684401623971</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.793791826789323</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.181818181818182</v>
+      </c>
       <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
+      <c r="G10" t="n">
+        <v>0.167892156862745</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.56095156314601</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.264429133525846</v>
+      </c>
       <c r="J10" t="n">
-        <v>0.0908713889988128</v>
-      </c>
-      <c r="K10"/>
+        <v>0.422823514360647</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.246575342465753</v>
+      </c>
       <c r="L10" t="n">
-        <v>0.11350917124113</v>
+        <v>0.261970534069982</v>
       </c>
       <c r="M10" t="n">
-        <v>0.594116813442656</v>
+        <v>0.377704401497739</v>
       </c>
       <c r="N10" t="n">
-        <v>0.618181818181818</v>
+        <v>0.321428571428571</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0184188281354273</v>
-      </c>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
+        <v>0.232323232323232</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.252873563218391</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.350877192982456</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.062992125984252</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.407407407407407</v>
+      </c>
       <c r="U10" t="n">
-        <v>0.0447489089000608</v>
+        <v>0.288600288600289</v>
       </c>
       <c r="V10"/>
       <c r="W10"/>
@@ -1027,39 +1252,69 @@
       <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
+      <c r="B11" t="n">
+        <v>0.244066264087577</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.42550245253396</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.639405306747622</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.234064785788924</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0123951326430353</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.27124183006536</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.552555417740037</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.345620345508891</v>
+      </c>
       <c r="J11" t="n">
-        <v>0.11206964780372</v>
-      </c>
-      <c r="K11"/>
+        <v>0.487366468368195</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.420091324200913</v>
+      </c>
       <c r="L11" t="n">
-        <v>0.153032534475833</v>
+        <v>0.441528545119705</v>
       </c>
       <c r="M11" t="n">
-        <v>0.597746330600263</v>
+        <v>0.418147680554207</v>
       </c>
       <c r="N11" t="n">
-        <v>0.236363636363636</v>
+        <v>0.392857142857143</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0304311073541843</v>
-      </c>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
+        <v>0.252525252525252</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.28735632183908</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.315789473684211</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.0529308836395451</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.351851851851852</v>
+      </c>
       <c r="U11" t="n">
-        <v>0.0765703552289929</v>
-      </c>
-      <c r="V11"/>
+        <v>0.248196248196248</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.212121212121212</v>
+      </c>
       <c r="W11"/>
       <c r="X11"/>
       <c r="Y11"/>
@@ -1068,37 +1323,61 @@
       <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
+      <c r="B12" t="n">
+        <v>0.4738054488111</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.360836169431253</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.560739606167053</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.219435736677116</v>
+      </c>
       <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
+      <c r="G12" t="n">
+        <v>0.27328431372549</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.556976115510606</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.214845399125251</v>
+      </c>
       <c r="J12" t="n">
-        <v>0.0589600316580926</v>
+        <v>0.477195675813983</v>
       </c>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>0.104592314901593</v>
+        <v>0.394567219152855</v>
       </c>
       <c r="M12" t="n">
-        <v>0.388794007490637</v>
+        <v>0.41646434236509</v>
       </c>
       <c r="N12" t="n">
-        <v>0.709090909090909</v>
+        <v>0.345238095238095</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0240245584375139</v>
-      </c>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
+        <v>0.232323232323232</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.494252873563218</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.421052631578947</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.0586176727909011</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.388888888888889</v>
+      </c>
       <c r="U12" t="n">
-        <v>0.0338102867244904</v>
+        <v>0.191919191919192</v>
       </c>
       <c r="V12"/>
       <c r="W12"/>
@@ -1109,37 +1388,59 @@
       <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="B13" t="n">
+        <v>0.368112291579208</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.276403340256988</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.565164188778115</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.247416695692558</v>
+      </c>
       <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
+      <c r="G13" t="n">
+        <v>0.484477124183007</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.419870877460802</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0617001874461725</v>
+      </c>
       <c r="J13" t="n">
-        <v>0.057991294024535</v>
+        <v>0.290667178404657</v>
       </c>
       <c r="K13"/>
       <c r="L13" t="n">
-        <v>0.0980854197349043</v>
+        <v>0.0460405156537753</v>
       </c>
       <c r="M13" t="n">
-        <v>0.391199109221581</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.618181818181818</v>
-      </c>
+        <v>0.209079235591812</v>
+      </c>
+      <c r="N13"/>
       <c r="O13" t="n">
-        <v>0.0344352004271033</v>
-      </c>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
+        <v>0.141414141414141</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.241379310344828</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.298245614035088</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.036745406824147</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.203703703703704</v>
+      </c>
       <c r="U13" t="n">
-        <v>0.0278437655378156</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="V13"/>
       <c r="W13"/>
@@ -1150,39 +1451,67 @@
       <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="B14" t="n">
+        <v>0.605084982938827</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.68510374104882</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.794070799436246</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.242308138859863</v>
+      </c>
       <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
+      <c r="G14" t="n">
+        <v>0.228758169934641</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.80711128073021</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.154339125588936</v>
+      </c>
       <c r="J14" t="n">
-        <v>0.0892758211317768</v>
-      </c>
-      <c r="K14"/>
+        <v>0.598221710484232</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.269406392694064</v>
+      </c>
       <c r="L14" t="n">
-        <v>0.133511848975767</v>
+        <v>0.357734806629834</v>
       </c>
       <c r="M14" t="n">
-        <v>0.525112258325741</v>
+        <v>0.644276110625533</v>
       </c>
       <c r="N14" t="n">
-        <v>0.345454545454545</v>
+        <v>0.30952380952381</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0280286515104329</v>
-      </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
+        <v>0.202020202020202</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.574712643678161</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.183333333333333</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.754385964912281</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.0625546806649169</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.703703703703704</v>
+      </c>
       <c r="U14" t="n">
-        <v>0.0507154300867355</v>
-      </c>
-      <c r="V14"/>
+        <v>0.509379509379509</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.212121212121212</v>
+      </c>
       <c r="W14"/>
       <c r="X14"/>
       <c r="Y14"/>
@@ -1191,39 +1520,67 @@
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="B15" t="n">
+        <v>0.527497012949269</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.748658338777991</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.850764920068604</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.251132009752699</v>
+      </c>
       <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
+      <c r="G15" t="n">
+        <v>0.151960784313726</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.921826797697421</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.161176689126433</v>
+      </c>
       <c r="J15" t="n">
-        <v>0.0860846853977048</v>
-      </c>
-      <c r="K15"/>
+        <v>0.684449561824346</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.248858447488584</v>
+      </c>
       <c r="L15" t="n">
-        <v>0.133511848975767</v>
+        <v>0.415285451197053</v>
       </c>
       <c r="M15" t="n">
-        <v>0.414331814961028</v>
+        <v>0.706117207816732</v>
       </c>
       <c r="N15" t="n">
-        <v>0.654545454545455</v>
+        <v>0.392857142857143</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0296302887396005</v>
-      </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
+        <v>0.272727272727273</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.563218390804598</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.736842105263158</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0546806649168854</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.518518518518518</v>
+      </c>
       <c r="U15" t="n">
-        <v>0.0676205734489807</v>
-      </c>
-      <c r="V15"/>
+        <v>0.497835497835498</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.303030303030303</v>
+      </c>
       <c r="W15"/>
       <c r="X15"/>
       <c r="Y15"/>
@@ -1232,37 +1589,59 @@
       <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
+      <c r="B16" t="n">
+        <v>0.446012421825384</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.360936936234117</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.565476026695772</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.149076976663184</v>
+      </c>
       <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
+      <c r="G16" t="n">
+        <v>0.171977124183007</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.428521451515441</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.086780823074455</v>
+      </c>
       <c r="J16" t="n">
-        <v>0.0835203798971112</v>
+        <v>0.455638712978955</v>
       </c>
       <c r="K16"/>
       <c r="L16" t="n">
-        <v>0.122185031463382</v>
+        <v>0.297421731123389</v>
       </c>
       <c r="M16" t="n">
-        <v>0.506920943415325</v>
+        <v>0.360547300724051</v>
       </c>
       <c r="N16" t="n">
-        <v>0.563636363636364</v>
+        <v>0.321428571428571</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0360368376562709</v>
-      </c>
-      <c r="P16"/>
+        <v>0.171717171717172</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.275862068965517</v>
+      </c>
       <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
+      <c r="R16" t="n">
+        <v>0.192982456140351</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0144356955380577</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.314814814814815</v>
+      </c>
       <c r="U16" t="n">
-        <v>0.0566819512734103</v>
+        <v>0.138528138528139</v>
       </c>
       <c r="V16"/>
       <c r="W16"/>
@@ -1273,37 +1652,59 @@
       <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
+      <c r="B17" t="n">
+        <v>0.267133830636915</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.310140715964387</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.475301366889539</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0929989550679206</v>
+      </c>
       <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
+      <c r="G17" t="n">
+        <v>0.250816993464052</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.444709474286805</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.155046692672712</v>
+      </c>
       <c r="J17" t="n">
-        <v>0.079588444796201</v>
+        <v>0.492164012025843</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="n">
-        <v>0.0935064935064935</v>
+        <v>0.306169429097606</v>
       </c>
       <c r="M17" t="n">
-        <v>0.460684684684685</v>
+        <v>0.423845132886601</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0208212839791787</v>
-      </c>
-      <c r="P17"/>
+        <v>0.191919191919192</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.448275862068966</v>
+      </c>
       <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
+      <c r="R17" t="n">
+        <v>0.596491228070175</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.0599300087489064</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.481481481481481</v>
+      </c>
       <c r="U17" t="n">
-        <v>0.0188939837578034</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="V17"/>
       <c r="W17"/>
@@ -1314,37 +1715,61 @@
       <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
+      <c r="B18" t="n">
+        <v>0.515172064886277</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.479669484886605</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.705786274851495</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.170672239637757</v>
+      </c>
       <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
+      <c r="G18" t="n">
+        <v>0.17483660130719</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.454091530706358</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0470979617339615</v>
+      </c>
       <c r="J18" t="n">
-        <v>0.0949742777997626</v>
-      </c>
-      <c r="K18"/>
+        <v>0.421736071131581</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0799086757990868</v>
+      </c>
       <c r="L18" t="n">
-        <v>0.118088097469541</v>
+        <v>0.211325966850829</v>
       </c>
       <c r="M18" t="n">
-        <v>0.526424131997166</v>
+        <v>0.339764548466112</v>
       </c>
       <c r="N18" t="n">
-        <v>0.109090909090909</v>
+        <v>0.178571428571429</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0216221025937625</v>
-      </c>
-      <c r="P18"/>
+        <v>0.101010101010101</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.252873563218391</v>
+      </c>
       <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
+      <c r="R18" t="n">
+        <v>0.210526315789474</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.0253718285214348</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.333333333333333</v>
+      </c>
       <c r="U18" t="n">
-        <v>0.0517098502845147</v>
+        <v>0.193362193362193</v>
       </c>
       <c r="V18"/>
       <c r="W18"/>
@@ -1355,39 +1780,65 @@
       <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
+      <c r="B19" t="n">
+        <v>0.618109600542513</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.535881108174788</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.706727138764816</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.170207825380239</v>
+      </c>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
+      <c r="H19" t="n">
+        <v>0.585726552809846</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.184936758025567</v>
+      </c>
       <c r="J19" t="n">
-        <v>0.092808864265928</v>
-      </c>
-      <c r="K19"/>
+        <v>0.554276210580183</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.235159817351598</v>
+      </c>
       <c r="L19" t="n">
-        <v>0.131583880037488</v>
+        <v>0.268876611418048</v>
       </c>
       <c r="M19" t="n">
-        <v>0.611375240408948</v>
+        <v>0.523097342267974</v>
       </c>
       <c r="N19" t="n">
-        <v>0.181818181818182</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0224229212083463</v>
-      </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
+        <v>0.151515151515151</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.413793103448276</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.0333333333333333</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.43859649122807</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.041994750656168</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.425925925925926</v>
+      </c>
       <c r="U19" t="n">
-        <v>0.0377879675156069</v>
-      </c>
-      <c r="V19"/>
+        <v>0.32034632034632</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.303030303030303</v>
+      </c>
       <c r="W19"/>
       <c r="X19"/>
       <c r="Y19"/>
@@ -1396,37 +1847,61 @@
       <c r="A20" t="s">
         <v>43</v>
       </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
+      <c r="B20" t="n">
+        <v>0.415818990107749</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.363966441404104</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.541726664893471</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.128526645768025</v>
+      </c>
       <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
+      <c r="G20" t="n">
+        <v>0.301470588235294</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.478135038005279</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.195926845331577</v>
+      </c>
       <c r="J20" t="n">
-        <v>0.141758607043926</v>
-      </c>
-      <c r="K20"/>
+        <v>0.431970830934561</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.267123287671233</v>
+      </c>
       <c r="L20" t="n">
-        <v>0.149658588833847</v>
+        <v>0.180939226519337</v>
       </c>
       <c r="M20" t="n">
-        <v>0.67806215203968</v>
+        <v>0.370636539229333</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0280286515104329</v>
-      </c>
-      <c r="P20"/>
+        <v>0.121212121212121</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.310344827586207</v>
+      </c>
       <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
+      <c r="R20" t="n">
+        <v>0.350877192982456</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.0590551181102362</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.444444444444444</v>
+      </c>
       <c r="U20" t="n">
-        <v>0.0666261532512016</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="V20"/>
       <c r="W20"/>
@@ -1437,37 +1912,61 @@
       <c r="A21" t="s">
         <v>44</v>
       </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
+      <c r="B21" t="n">
+        <v>0.573287693350986</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.494423695151166</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.728743812921707</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.215023801230698</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.00393016400876729</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.36233660130719</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.496644722195719</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0992265734501917</v>
+      </c>
       <c r="J21" t="n">
-        <v>0.10819469726949</v>
+        <v>0.465361734791787</v>
       </c>
       <c r="K21"/>
       <c r="L21" t="n">
-        <v>0.120257062525104</v>
+        <v>0.223756906077348</v>
       </c>
       <c r="M21" t="n">
-        <v>0.663675270776394</v>
+        <v>0.378858998845403</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0320327445833519</v>
-      </c>
-      <c r="P21"/>
+        <v>0.131313131313131</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.275862068965517</v>
+      </c>
       <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
+      <c r="R21" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.0332458442694663</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.222222222222222</v>
+      </c>
       <c r="U21" t="n">
-        <v>0.0536986906800729</v>
+        <v>0.187590187590188</v>
       </c>
       <c r="V21"/>
       <c r="W21"/>
@@ -1478,37 +1977,59 @@
       <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
+      <c r="B22" t="n">
+        <v>0.60933682091689</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.468234078032512</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.710204742993583</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.132938581214443</v>
+      </c>
       <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
+      <c r="G22" t="n">
+        <v>0.343954248366013</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.529211589224947</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0178040089839066</v>
+      </c>
       <c r="J22" t="n">
-        <v>0.0449988128215275</v>
+        <v>0.438431523060193</v>
       </c>
       <c r="K22"/>
       <c r="L22" t="n">
-        <v>0.0771187575311287</v>
+        <v>0.238029465930018</v>
       </c>
       <c r="M22" t="n">
-        <v>0.364772142929446</v>
+        <v>0.363018354860639</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.309523809523809</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0216221025937625</v>
-      </c>
-      <c r="P22"/>
+        <v>0.151515151515151</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.241379310344828</v>
+      </c>
       <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
+      <c r="R22" t="n">
+        <v>0.421052631578947</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0380577427821522</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.203703703703704</v>
+      </c>
       <c r="U22" t="n">
-        <v>0.0367935473178277</v>
+        <v>0.34054834054834</v>
       </c>
       <c r="V22"/>
       <c r="W22"/>
@@ -1519,39 +2040,67 @@
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
+      <c r="B23" t="n">
+        <v>0.49086662145725</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.616455543961956</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.81436472195981</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.288052943225357</v>
+      </c>
       <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
+      <c r="G23" t="n">
+        <v>0.332516339869281</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.608434309703273</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.335886654170255</v>
+      </c>
       <c r="J23" t="n">
-        <v>0.0673937475267115</v>
-      </c>
-      <c r="K23"/>
+        <v>0.535853642934817</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.19634703196347</v>
+      </c>
       <c r="L23" t="n">
-        <v>0.104833311018878</v>
+        <v>0.356353591160221</v>
       </c>
       <c r="M23" t="n">
-        <v>0.477622431420184</v>
+        <v>0.549437268675882</v>
       </c>
       <c r="N23" t="n">
-        <v>0.363636363636364</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0264270142812653</v>
-      </c>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
+        <v>0.191919191919192</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.32183908045977</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.385964912280702</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.0739282589676291</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.388888888888889</v>
+      </c>
       <c r="U23" t="n">
-        <v>0.0457433290978399</v>
-      </c>
-      <c r="V23"/>
+        <v>0.295815295815296</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.181818181818182</v>
+      </c>
       <c r="W23"/>
       <c r="X23"/>
       <c r="Y23"/>
@@ -1560,37 +2109,61 @@
       <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
+      <c r="B24" t="n">
+        <v>0.433009332515258</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.291940931150269</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.490930713894825</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.181237663996285</v>
+      </c>
       <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
+      <c r="G24" t="n">
+        <v>0.366830065359477</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.374105524282034</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.232288025398112</v>
+      </c>
       <c r="J24" t="n">
-        <v>0.0552560348239019</v>
+        <v>0.325337427237255</v>
       </c>
       <c r="K24"/>
       <c r="L24" t="n">
-        <v>0.100736377025037</v>
+        <v>0.240331491712707</v>
       </c>
       <c r="M24" t="n">
-        <v>0.384056685899383</v>
+        <v>0.295415061560541</v>
       </c>
       <c r="N24" t="n">
-        <v>0.109090909090909</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0288294701250167</v>
-      </c>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
+        <v>0.282828282828283</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.275862068965517</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.116666666666667</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.192982456140351</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.0835520559930009</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.240740740740741</v>
+      </c>
       <c r="U24" t="n">
-        <v>0.0298326059333738</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="V24"/>
       <c r="W24"/>
@@ -1601,39 +2174,63 @@
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
+      <c r="B25" t="n">
+        <v>0.480425399080742</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.506954534668656</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.611174039187632</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.152211772901428</v>
+      </c>
       <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
+      <c r="G25" t="n">
+        <v>0.125816993464052</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.57335495976847</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.234304338281237</v>
+      </c>
       <c r="J25" t="n">
-        <v>0.0946893549663633</v>
+        <v>0.713106889272692</v>
       </c>
       <c r="K25"/>
       <c r="L25" t="n">
-        <v>0.0949524702102022</v>
+        <v>0.469613259668508</v>
       </c>
       <c r="M25" t="n">
-        <v>0.444592367648547</v>
+        <v>0.682205173027743</v>
       </c>
       <c r="N25" t="n">
-        <v>0.472727272727273</v>
+        <v>0.535714285714286</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0288294701250167</v>
-      </c>
-      <c r="P25"/>
+        <v>0.282828282828283</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.747126436781609</v>
+      </c>
       <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
+      <c r="R25" t="n">
+        <v>0.859649122807018</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.0809273840769904</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.851851851851852</v>
+      </c>
       <c r="U25" t="n">
-        <v>0.0447489089000608</v>
-      </c>
-      <c r="V25"/>
+        <v>0.59018759018759</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.575757575757576</v>
+      </c>
       <c r="W25"/>
       <c r="X25"/>
       <c r="Y25"/>
@@ -1642,37 +2239,59 @@
       <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
+      <c r="B26" t="n">
+        <v>0.368456744276165</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.355385010450493</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.603060903168212</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.160919540229885</v>
+      </c>
       <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
+      <c r="G26" t="n">
+        <v>0.139297385620915</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.410266195973667</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.242080821385751</v>
+      </c>
       <c r="J26" t="n">
-        <v>0.0750296794618124</v>
+        <v>0.426853451033071</v>
       </c>
       <c r="K26"/>
       <c r="L26" t="n">
-        <v>0.109894229481858</v>
+        <v>0.21316758747698</v>
       </c>
       <c r="M26" t="n">
-        <v>0.385004150217633</v>
+        <v>0.334164211798474</v>
       </c>
       <c r="N26" t="n">
-        <v>0.872727272727273</v>
+        <v>0.25</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0208212839791787</v>
-      </c>
-      <c r="P26"/>
+        <v>0.191919191919192</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.32183908045977</v>
+      </c>
       <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
+      <c r="R26" t="n">
+        <v>0.298245614035088</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.0450568678915136</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.314814814814815</v>
+      </c>
       <c r="U26" t="n">
-        <v>0.0348047069222695</v>
+        <v>0.124098124098124</v>
       </c>
       <c r="V26"/>
       <c r="W26"/>
@@ -1683,78 +2302,124 @@
       <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
+      <c r="B27" t="n">
+        <v>0.591403752381568</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.586326269905507</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.754422289685197</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.122373156855915</v>
+      </c>
       <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
+      <c r="G27" t="n">
+        <v>0.125816993464052</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.524536462805712</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.137658104936083</v>
+      </c>
       <c r="J27" t="n">
-        <v>0.105573407202216</v>
+        <v>0.6655792234376</v>
       </c>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>0.142669701432588</v>
+        <v>0.312615101289135</v>
       </c>
       <c r="M27" t="n">
-        <v>0.423150521307825</v>
+        <v>0.48539488308353</v>
       </c>
       <c r="N27" t="n">
-        <v>0.472727272727273</v>
+        <v>0.178571428571429</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0376384748854384</v>
-      </c>
-      <c r="P27"/>
+        <v>0.171717171717172</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.241379310344828</v>
+      </c>
       <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
+      <c r="R27" t="n">
+        <v>0.350877192982456</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.0853018372703412</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.314814814814815</v>
+      </c>
       <c r="U27" t="n">
-        <v>0.0706038340423181</v>
+        <v>0.518037518037518</v>
       </c>
       <c r="V27"/>
       <c r="W27"/>
-      <c r="X27"/>
+      <c r="X27" t="n">
+        <v>0.42346208869814</v>
+      </c>
       <c r="Y27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
+      <c r="B28" t="n">
+        <v>0.532340879000226</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.388644556479793</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.636889202764963</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.151515151515152</v>
+      </c>
       <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
+      <c r="G28" t="n">
+        <v>0.443218954248366</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.398053620837706</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0969029163922522</v>
+      </c>
       <c r="J28" t="n">
-        <v>0.0970257222002374</v>
+        <v>0.46286701208981</v>
       </c>
       <c r="K28"/>
       <c r="L28" t="n">
-        <v>0.139777748025171</v>
+        <v>0.192449355432781</v>
       </c>
       <c r="M28" t="n">
-        <v>0.400979856260755</v>
+        <v>0.336138896981861</v>
       </c>
       <c r="N28" t="n">
-        <v>0.490909090909091</v>
+        <v>0.261904761904762</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0344352004271033</v>
-      </c>
-      <c r="P28"/>
+        <v>0.161616161616162</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.241379310344828</v>
+      </c>
       <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
+      <c r="R28" t="n">
+        <v>0.175438596491228</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.0516185476815398</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.203703703703704</v>
+      </c>
       <c r="U28" t="n">
-        <v>0.0755759350312138</v>
+        <v>0.177489177489178</v>
       </c>
       <c r="V28"/>
       <c r="W28"/>
@@ -1765,37 +2430,59 @@
       <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
+      <c r="B29" t="n">
+        <v>0.522922250567809</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.489404858260115</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.628892241656043</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.140601416463485</v>
+      </c>
       <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
+      <c r="G29" t="n">
+        <v>0.163398692810458</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.509525172534427</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.122115270952598</v>
+      </c>
       <c r="J29" t="n">
-        <v>0.0962279382667194</v>
+        <v>0.510202776178597</v>
       </c>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>0.14025974025974</v>
+        <v>0.185543278084715</v>
       </c>
       <c r="M29" t="n">
-        <v>0.428558356108918</v>
+        <v>0.458472262687083</v>
       </c>
       <c r="N29" t="n">
-        <v>0.490909090909091</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0200204653645949</v>
-      </c>
-      <c r="P29"/>
+        <v>0.202020202020202</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.390804597701149</v>
+      </c>
       <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
+      <c r="R29" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.0249343832020997</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.351851851851852</v>
+      </c>
       <c r="U29" t="n">
-        <v>0.0785591956245511</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="V29"/>
       <c r="W29"/>
@@ -1806,37 +2493,61 @@
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
+      <c r="B30" t="n">
+        <v>0.446905846008116</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.348133051186285</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.553147728627638</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0960176477417857</v>
+      </c>
       <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
+      <c r="G30" t="n">
+        <v>0.154820261437909</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.47498648347804</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.142399986490366</v>
+      </c>
       <c r="J30" t="n">
-        <v>0.0369639889196676</v>
+        <v>0.47546856009723</v>
       </c>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>0.0862766099879502</v>
+        <v>0.162983425414365</v>
       </c>
       <c r="M30" t="n">
-        <v>0.294820123494281</v>
+        <v>0.417154942647805</v>
       </c>
       <c r="N30" t="n">
-        <v>0.381818181818182</v>
+        <v>0.392857142857143</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0352360190416871</v>
-      </c>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
+        <v>0.191919191919192</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.448275862068966</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.0599300087489064</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.425925925925926</v>
+      </c>
       <c r="U30" t="n">
-        <v>0.0258549251422573</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="V30"/>
       <c r="W30"/>
@@ -1847,39 +2558,67 @@
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
+      <c r="B31" t="n">
+        <v>0.794878418962121</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.80148289727312</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.785319465717701</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.169859514687101</v>
+      </c>
       <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
+      <c r="G31" t="n">
+        <v>0.149101307189543</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.754667175523964</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.185669655673202</v>
+      </c>
       <c r="J31" t="n">
-        <v>0.0416367233874159</v>
-      </c>
-      <c r="K31"/>
+        <v>0.777521908782703</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.168949771689498</v>
+      </c>
       <c r="L31" t="n">
-        <v>0.101941357611461</v>
+        <v>0.586556169429098</v>
       </c>
       <c r="M31" t="n">
-        <v>0.321363700779431</v>
+        <v>0.848639841161935</v>
       </c>
       <c r="N31" t="n">
-        <v>0.890909090909091</v>
+        <v>0.511904761904762</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0208212839791787</v>
-      </c>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
+        <v>0.303030303030303</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.71264367816092</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.789473684210526</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0594925634295713</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.555555555555556</v>
+      </c>
       <c r="U31" t="n">
-        <v>0.0338102867244904</v>
-      </c>
-      <c r="V31"/>
+        <v>0.378066378066378</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.393939393939394</v>
+      </c>
       <c r="W31"/>
       <c r="X31"/>
       <c r="Y31"/>
@@ -1888,37 +2627,59 @@
       <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
+      <c r="B32" t="n">
+        <v>0.324291450038213</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.237929924814963</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.426790698669797</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.132125856263787</v>
+      </c>
       <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
+      <c r="G32" t="n">
+        <v>0.191993464052288</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.379130490093184</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0443267980478579</v>
+      </c>
       <c r="J32" t="n">
-        <v>0.0448848436881678</v>
+        <v>0.327640248192925</v>
       </c>
       <c r="K32"/>
       <c r="L32" t="n">
-        <v>0.101218369259606</v>
+        <v>0.155156537753223</v>
       </c>
       <c r="M32" t="n">
-        <v>0.355705638222492</v>
+        <v>0.255683964045623</v>
       </c>
       <c r="N32" t="n">
-        <v>0.327272727272727</v>
+        <v>0.321428571428571</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0240245584375139</v>
-      </c>
-      <c r="P32"/>
+        <v>0.141414141414141</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.241379310344828</v>
+      </c>
       <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
+      <c r="R32" t="n">
+        <v>0.210526315789474</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.005249343832021</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.166666666666667</v>
+      </c>
       <c r="U32" t="n">
-        <v>0.0328158665267112</v>
+        <v>0.118326118326118</v>
       </c>
       <c r="V32"/>
       <c r="W32"/>
@@ -1929,39 +2690,65 @@
       <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
+      <c r="B33" t="n">
+        <v>0.200008611317424</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.329461937778124</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.556003185638335</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.129223267154302</v>
+      </c>
       <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
+      <c r="G33" t="n">
+        <v>0.151960784313726</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.42969818401552</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.206682202745833</v>
+      </c>
       <c r="J33" t="n">
-        <v>0.106941036802533</v>
-      </c>
-      <c r="K33"/>
+        <v>0.440798311264632</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.19634703196347</v>
+      </c>
       <c r="L33" t="n">
-        <v>0.101700361494176</v>
+        <v>0.2048802946593</v>
       </c>
       <c r="M33" t="n">
-        <v>0.621695313290819</v>
+        <v>0.386520345731767</v>
       </c>
       <c r="N33" t="n">
-        <v>0.127272727272727</v>
+        <v>0.321428571428571</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0320327445833519</v>
-      </c>
-      <c r="P33"/>
+        <v>0.242424242424242</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.402298850574713</v>
+      </c>
       <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
+      <c r="R33" t="n">
+        <v>0.543859649122807</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.0612423447069116</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.592592592592593</v>
+      </c>
       <c r="U33" t="n">
-        <v>0.0517098502845147</v>
-      </c>
-      <c r="V33"/>
+        <v>0.414141414141414</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.272727272727273</v>
+      </c>
       <c r="W33"/>
       <c r="X33"/>
       <c r="Y33"/>
@@ -1970,37 +2757,59 @@
       <c r="A34" t="s">
         <v>57</v>
       </c>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
+      <c r="B34" t="n">
+        <v>0.343828376443741</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.279185804232856</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.433739792658357</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0673400673400673</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.004232484317134</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.177696078431373</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.373405845498203</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.145022544201834</v>
+      </c>
       <c r="J34" t="n">
-        <v>0.0257380292837356</v>
+        <v>0.359048167338323</v>
       </c>
       <c r="K34"/>
       <c r="L34" t="n">
-        <v>0.0689248895434462</v>
+        <v>0.203499079189687</v>
       </c>
       <c r="M34" t="n">
-        <v>0.254326956169653</v>
+        <v>0.315323772835669</v>
       </c>
       <c r="N34" t="n">
-        <v>0.490909090909091</v>
+        <v>0.464285714285714</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34"/>
+        <v>0.212121212121212</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.390804597701149</v>
+      </c>
       <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
+      <c r="R34" t="n">
+        <v>0.526315789473684</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.0538057742782152</v>
+      </c>
       <c r="T34"/>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.271284271284271</v>
       </c>
       <c r="V34"/>
       <c r="W34"/>
@@ -2011,37 +2820,59 @@
       <c r="A35" t="s">
         <v>58</v>
       </c>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
+      <c r="B35" t="n">
+        <v>0.262871228512072</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.356561706664586</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.520438376853066</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.382329037501451</v>
+      </c>
       <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
+      <c r="G35" t="n">
+        <v>0.346813725490196</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.558598098145851</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.260040191161322</v>
+      </c>
       <c r="J35" t="n">
-        <v>0.0696731301939058</v>
+        <v>0.568029169065439</v>
       </c>
       <c r="K35"/>
       <c r="L35" t="n">
-        <v>0.135921810148614</v>
+        <v>0.392725598526704</v>
       </c>
       <c r="M35" t="n">
-        <v>0.519995951007187</v>
+        <v>0.422258910362241</v>
       </c>
       <c r="N35" t="n">
-        <v>0.454545454545454</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0336343818125195</v>
-      </c>
-      <c r="P35"/>
+        <v>0.272727272727273</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.563218390804598</v>
+      </c>
       <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
+      <c r="R35" t="n">
+        <v>0.596491228070175</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.0669291338582677</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.518518518518518</v>
+      </c>
       <c r="U35" t="n">
-        <v>0.0228716645489199</v>
+        <v>0.210678210678211</v>
       </c>
       <c r="V35"/>
       <c r="W35"/>
@@ -2053,60 +2884,58 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>0.541006475225225</v>
+        <v>0.421876513708141</v>
       </c>
       <c r="C36" t="n">
-        <v>0.630421440261866</v>
+        <v>0.294101728963305</v>
       </c>
       <c r="D36" t="n">
-        <v>0.176706563066371</v>
+        <v>0.559441236895929</v>
       </c>
       <c r="E36" t="n">
-        <v>0.341372912801484</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.128102508912356</v>
-      </c>
+        <v>0.110240334378265</v>
+      </c>
+      <c r="F36"/>
       <c r="G36" t="n">
-        <v>0.0467280298293496</v>
+        <v>0.205575980392157</v>
       </c>
       <c r="H36" t="n">
-        <v>0.29609586393506</v>
+        <v>0.396002289857838</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0068030988655701</v>
+        <v>0.124162824864481</v>
       </c>
       <c r="J36" t="n">
-        <v>0.479752011607967</v>
+        <v>0.403713298791019</v>
       </c>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>0.293256571607087</v>
+        <v>0.240676795580111</v>
       </c>
       <c r="M36" t="n">
-        <v>0.622937544285859</v>
+        <v>0.346379204298987</v>
       </c>
       <c r="N36" t="n">
-        <v>0.484848484848485</v>
+        <v>0.330357142857143</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0165502513680651</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="P36" t="n">
-        <v>0.475</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="Q36"/>
       <c r="R36" t="n">
-        <v>0.346153846153846</v>
+        <v>0.592105263157895</v>
       </c>
       <c r="S36" t="n">
-        <v>0.619156244264401</v>
+        <v>0.0469160104986877</v>
       </c>
       <c r="T36" t="n">
-        <v>0.289855072463768</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0483951162919176</v>
+        <v>0.313852813852814</v>
       </c>
       <c r="V36"/>
       <c r="W36"/>
@@ -2118,66 +2947,68 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>0.346283783783784</v>
+        <v>0.687247715309846</v>
       </c>
       <c r="C37" t="n">
-        <v>0.581833060556465</v>
+        <v>0.719559486544381</v>
       </c>
       <c r="D37" t="n">
-        <v>0.106806485561179</v>
+        <v>0.888170184014944</v>
       </c>
       <c r="E37" t="n">
-        <v>0.489744382601525</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.340226396269142</v>
-      </c>
+        <v>0.2347614071752</v>
+      </c>
+      <c r="F37"/>
       <c r="G37" t="n">
-        <v>0.0736277552969174</v>
+        <v>0.126633986928105</v>
       </c>
       <c r="H37" t="n">
-        <v>0.547395095133789</v>
+        <v>0.623286582069141</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0368489642219627</v>
+        <v>0.168509043011297</v>
       </c>
       <c r="J37" t="n">
-        <v>0.711647539902387</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.739393939393939</v>
-      </c>
+        <v>0.607624896053221</v>
+      </c>
+      <c r="K37"/>
       <c r="L37" t="n">
-        <v>0.641295130985853</v>
+        <v>0.479281767955801</v>
       </c>
       <c r="M37" t="n">
-        <v>0.545669264770388</v>
+        <v>0.760739373927681</v>
       </c>
       <c r="N37" t="n">
-        <v>0.557575757575758</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="O37" t="n">
-        <v>0.355489315003485</v>
+        <v>0.282828282828283</v>
       </c>
       <c r="P37" t="n">
-        <v>0.558333333333333</v>
-      </c>
-      <c r="Q37"/>
+        <v>0.586206896551724</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.15</v>
+      </c>
       <c r="R37" t="n">
-        <v>0.141025641025641</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="S37" t="n">
-        <v>0.718791787933611</v>
+        <v>0.0638670166229221</v>
       </c>
       <c r="T37" t="n">
-        <v>0.304347826086957</v>
+        <v>0.87037037037037</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0374564941163472</v>
-      </c>
-      <c r="V37"/>
+        <v>0.395382395382395</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.363636363636364</v>
+      </c>
       <c r="W37"/>
-      <c r="X37"/>
+      <c r="X37" t="n">
+        <v>0.443490701001431</v>
+      </c>
       <c r="Y37"/>
     </row>
     <row r="38">
@@ -2185,62 +3016,60 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>0.669341216216216</v>
+        <v>0.302181892552287</v>
       </c>
       <c r="C38" t="n">
-        <v>0.573820240043644</v>
+        <v>0.498873687187339</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0462848347387613</v>
+        <v>0.697327671335064</v>
       </c>
       <c r="E38" t="n">
-        <v>0.437950937950938</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.420942075289792</v>
-      </c>
+        <v>0.366538952745849</v>
+      </c>
+      <c r="F38"/>
       <c r="G38" t="n">
-        <v>0.142434030889382</v>
+        <v>0.146241830065359</v>
       </c>
       <c r="H38" t="n">
-        <v>0.752093802345059</v>
+        <v>0.68609865470852</v>
       </c>
       <c r="I38" t="n">
-        <v>0.322233059147666</v>
+        <v>0.0820845365351166</v>
       </c>
       <c r="J38" t="n">
-        <v>0.846326342171217</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.690909090909091</v>
-      </c>
+        <v>0.53898803812448</v>
+      </c>
+      <c r="K38"/>
       <c r="L38" t="n">
-        <v>0.634042933012005</v>
+        <v>0.269797421731123</v>
       </c>
       <c r="M38" t="n">
-        <v>0.38549785740797</v>
+        <v>0.433373258662178</v>
       </c>
       <c r="N38" t="n">
-        <v>0.363636363636364</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0149486141388975</v>
+        <v>0.171717171717172</v>
       </c>
       <c r="P38" t="n">
-        <v>0.258333333333333</v>
-      </c>
-      <c r="Q38"/>
+        <v>0.35632183908046</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.2</v>
+      </c>
       <c r="R38" t="n">
-        <v>0.192307692307692</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="S38" t="n">
-        <v>0.52279818558431</v>
+        <v>0.062992125984252</v>
       </c>
       <c r="T38" t="n">
-        <v>0.188405797101449</v>
+        <v>0.481481481481482</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0314899729296724</v>
+        <v>0.336219336219336</v>
       </c>
       <c r="V38"/>
       <c r="W38"/>
@@ -2252,58 +3081,60 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>0.391152871621622</v>
+        <v>0.605149567819507</v>
       </c>
       <c r="C39" t="n">
-        <v>0.520253682487725</v>
+        <v>0.122483674152665</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0904527998099953</v>
+        <v>0.24994191254475</v>
       </c>
       <c r="E39" t="n">
-        <v>0.241754277468563</v>
+        <v>0.916637640775572</v>
       </c>
       <c r="F39" t="n">
-        <v>0.28935870271967</v>
+        <v>0.138487894590986</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0303776104236977</v>
+        <v>0.519199346405229</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0546750848258386</v>
+        <v>0.158159208726903</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0793025180388808</v>
+        <v>0.767075333096915</v>
       </c>
       <c r="J39" t="n">
-        <v>0.437936947632239</v>
+        <v>0.287276914219919</v>
       </c>
       <c r="K39"/>
       <c r="L39" t="n">
-        <v>0.243120453429732</v>
+        <v>0.121086556169429</v>
       </c>
       <c r="M39" t="n">
-        <v>0.456422714849681</v>
+        <v>0.243749527909963</v>
       </c>
       <c r="N39" t="n">
-        <v>0.545454545454545</v>
+        <v>0.273809523809524</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0160163722916759</v>
+        <v>0.585858585858586</v>
       </c>
       <c r="P39" t="n">
-        <v>0.433333333333333</v>
-      </c>
-      <c r="Q39"/>
+        <v>0.252873563218391</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.0833333333333333</v>
+      </c>
       <c r="R39" t="n">
-        <v>0.282051282051282</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S39" t="n">
-        <v>0.508377251632188</v>
+        <v>0.440507436570429</v>
       </c>
       <c r="T39"/>
       <c r="U39" t="n">
-        <v>0.0454118556985802</v>
+        <v>0.411255411255411</v>
       </c>
       <c r="V39"/>
       <c r="W39"/>
@@ -2315,265 +3146,263 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>0.18774634009009</v>
+        <v>0.533977029310772</v>
       </c>
       <c r="C40" t="n">
-        <v>0.655073649754501</v>
+        <v>0.189106783556158</v>
       </c>
       <c r="D40" t="n">
-        <v>0.115516883701332</v>
+        <v>0.344655036946679</v>
       </c>
       <c r="E40" t="n">
-        <v>0.850907029478458</v>
+        <v>0.698246836177871</v>
       </c>
       <c r="F40" t="n">
-        <v>0.256182596802762</v>
+        <v>0.118333207366538</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0839126715982315</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.763690246102307</v>
-      </c>
+        <v>0.550653594771242</v>
+      </c>
+      <c r="H40"/>
       <c r="I40" t="n">
-        <v>0.340800059944861</v>
+        <v>0.898730094398568</v>
       </c>
       <c r="J40" t="n">
-        <v>0.701358659807413</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.575757575757576</v>
-      </c>
+        <v>0.310880829015544</v>
+      </c>
+      <c r="K40"/>
       <c r="L40" t="n">
-        <v>0.640737269603249</v>
+        <v>0.161141804788214</v>
       </c>
       <c r="M40" t="n">
-        <v>0.462293754428586</v>
+        <v>0.353468647826228</v>
       </c>
       <c r="N40" t="n">
-        <v>0.533333333333333</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="O40" t="n">
-        <v>0.455191232519168</v>
+        <v>0.626262626262626</v>
       </c>
       <c r="P40" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="Q40"/>
+        <v>0.183908045977011</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.133333333333333</v>
+      </c>
       <c r="R40" t="n">
-        <v>0.371794871794872</v>
+        <v>0.596491228070175</v>
       </c>
       <c r="S40" t="n">
-        <v>0.903641941319909</v>
+        <v>0.189851268591426</v>
       </c>
       <c r="T40" t="n">
         <v>0.333333333333333</v>
       </c>
       <c r="U40" t="n">
-        <v>0.271145240594442</v>
+        <v>0.26984126984127</v>
       </c>
       <c r="V40"/>
       <c r="W40"/>
       <c r="X40"/>
-      <c r="Y40"/>
+      <c r="Y40" t="n">
+        <v>0.677871148459384</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>0.413745777027027</v>
+        <v>0.363020850152313</v>
       </c>
       <c r="C41" t="n">
-        <v>0.628648390616476</v>
+        <v>0.161334152469924</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0916066672927048</v>
+        <v>0.300747035246856</v>
       </c>
       <c r="E41" t="n">
-        <v>0.317666460523603</v>
+        <v>0.643910368048299</v>
       </c>
       <c r="F41" t="n">
-        <v>0.430751272392996</v>
+        <v>0.213211397475625</v>
       </c>
       <c r="G41" t="n">
-        <v>0.107761864915695</v>
+        <v>0.496323529411765</v>
       </c>
       <c r="H41" t="n">
-        <v>0.601769531417773</v>
+        <v>0.260789364882486</v>
       </c>
       <c r="I41" t="n">
-        <v>0.324443858444998</v>
+        <v>0.691956701622845</v>
       </c>
       <c r="J41" t="n">
-        <v>0.803983643318823</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.715151515151515</v>
-      </c>
+        <v>0.340817501439263</v>
+      </c>
+      <c r="K41"/>
       <c r="L41" t="n">
-        <v>0.54924800285625</v>
+        <v>0.154696132596685</v>
       </c>
       <c r="M41" t="n">
-        <v>0.362587306407531</v>
+        <v>0.762973034217086</v>
       </c>
       <c r="N41" t="n">
-        <v>0.333333333333333</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0248253770520977</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="P41" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="Q41"/>
+        <v>0.195402298850575</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.616666666666667</v>
+      </c>
       <c r="R41" t="n">
-        <v>0.217948717948718</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="S41" t="n">
-        <v>0.450667295943785</v>
+        <v>0.162292213473316</v>
       </c>
       <c r="T41" t="n">
-        <v>0.289855072463768</v>
+        <v>0.259259259259259</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0447489089000608</v>
+        <v>0.235209235209235</v>
       </c>
       <c r="V41"/>
       <c r="W41"/>
       <c r="X41"/>
-      <c r="Y41"/>
+      <c r="Y41" t="n">
+        <v>0.787114845938375</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>0.545897522522523</v>
+        <v>0.383644955382612</v>
       </c>
       <c r="C42" t="n">
-        <v>0.366509819967267</v>
+        <v>0.202577029719706</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0662823125406066</v>
+        <v>0.361953633981773</v>
       </c>
       <c r="E42" t="n">
-        <v>0.332148010719439</v>
+        <v>0.41507024265645</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0430777897356562</v>
+        <v>0.0515959992945859</v>
       </c>
       <c r="G42" t="n">
-        <v>0.275247366770753</v>
+        <v>0.35171568627451</v>
       </c>
       <c r="H42" t="n">
-        <v>0.33170124124898</v>
+        <v>0.323251598129949</v>
       </c>
       <c r="I42" t="n">
-        <v>0.105364898825311</v>
+        <v>0.476684060320516</v>
       </c>
       <c r="J42" t="n">
-        <v>0.658884052235853</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.393939393939394</v>
-      </c>
+        <v>0.432866372417322</v>
+      </c>
+      <c r="K42"/>
       <c r="L42" t="n">
-        <v>0.442696478778953</v>
+        <v>0.223756906077348</v>
       </c>
       <c r="M42" t="n">
-        <v>0.248371967473091</v>
+        <v>0.497750153766469</v>
       </c>
       <c r="N42" t="n">
-        <v>0.472727272727273</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0298972282777951</v>
+        <v>0.525252525252525</v>
       </c>
       <c r="P42" t="n">
-        <v>0.425</v>
+        <v>0.505747126436782</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.533333333333333</v>
+        <v>0.283333333333333</v>
       </c>
       <c r="R42" t="n">
-        <v>0.32051282051282</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="S42" t="n">
-        <v>0.645376124177351</v>
+        <v>0.166229221347332</v>
       </c>
       <c r="T42" t="n">
-        <v>0.391304347826087</v>
+        <v>0.518518518518518</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0500524832882161</v>
+        <v>0.402597402597403</v>
       </c>
       <c r="V42"/>
       <c r="W42"/>
       <c r="X42"/>
-      <c r="Y42"/>
+      <c r="Y42" t="n">
+        <v>0.574229691876751</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>0.447248029279279</v>
+        <v>0.263387907557507</v>
       </c>
       <c r="C43" t="n">
-        <v>0.670451445717403</v>
+        <v>0.34537659154664</v>
       </c>
       <c r="D43" t="n">
-        <v>0.150939747850978</v>
+        <v>0.569530683933927</v>
       </c>
       <c r="E43" t="n">
-        <v>0.547103689960833</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.323655859734087</v>
-      </c>
+        <v>0.19830488796006</v>
+      </c>
+      <c r="F43"/>
       <c r="G43" t="n">
-        <v>0.0710024113583078</v>
+        <v>0.0772058823529412</v>
       </c>
       <c r="H43" t="n">
-        <v>0.582227376197225</v>
+        <v>0.439302865502656</v>
       </c>
       <c r="I43" t="n">
-        <v>0.161126755005529</v>
+        <v>0.2158738200179</v>
       </c>
       <c r="J43" t="n">
-        <v>0.698720485424086</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.496969696969697</v>
-      </c>
+        <v>0.443932706454295</v>
+      </c>
+      <c r="K43"/>
       <c r="L43" t="n">
-        <v>0.65468380416834</v>
+        <v>0.169889502762431</v>
       </c>
       <c r="M43" t="n">
-        <v>0.595876775652057</v>
+        <v>0.343206759250267</v>
       </c>
       <c r="N43" t="n">
-        <v>0.648484848484848</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0491168750278062</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="P43" t="n">
-        <v>0.608333333333333</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="Q43"/>
       <c r="R43" t="n">
-        <v>0.230769230769231</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="S43" t="n">
-        <v>0.693227405018485</v>
+        <v>0.0791776027996501</v>
       </c>
       <c r="T43" t="n">
-        <v>0.449275362318841</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="U43" t="n">
-        <v>0.249010183599433</v>
+        <v>0.271284271284271</v>
       </c>
       <c r="V43"/>
       <c r="W43"/>
@@ -2584,128 +3413,130 @@
       <c r="A44" t="s">
         <v>67</v>
       </c>
-      <c r="B44" t="n">
-        <v>0.241976351351351</v>
-      </c>
+      <c r="B44"/>
       <c r="C44" t="n">
-        <v>0.731016093835243</v>
+        <v>0.751535068472668</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0639832532705463</v>
+        <v>0.847929335082071</v>
       </c>
       <c r="E44" t="n">
-        <v>0.38961038961039</v>
+        <v>0.863578311854174</v>
       </c>
       <c r="F44" t="n">
-        <v>0.16674373892962</v>
+        <v>0.028140982037135</v>
       </c>
       <c r="G44" t="n">
-        <v>0.413510842454007</v>
+        <v>0.46609477124183</v>
       </c>
       <c r="H44" t="n">
-        <v>0.475239445088691</v>
+        <v>0.765766625322011</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0369043866159796</v>
+        <v>0.784443656382458</v>
       </c>
       <c r="J44" t="n">
-        <v>0.429362880886427</v>
+        <v>0.928484615876671</v>
       </c>
       <c r="K44"/>
       <c r="L44" t="n">
-        <v>0.467800240996117</v>
+        <v>0.629373848987109</v>
       </c>
       <c r="M44" t="n">
-        <v>0.191753551304113</v>
+        <v>0.886698391117154</v>
       </c>
       <c r="N44" t="n">
-        <v>0.496969696969697</v>
+        <v>0.702380952380952</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0213551630555679</v>
+        <v>0.94949494949495</v>
       </c>
       <c r="P44" t="n">
-        <v>0.466666666666667</v>
-      </c>
-      <c r="Q44"/>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.633333333333333</v>
+      </c>
       <c r="R44" t="n">
-        <v>0.307692307692308</v>
+        <v>0.508771929824561</v>
       </c>
       <c r="S44" t="n">
-        <v>0.518865203597368</v>
+        <v>0.357392825896763</v>
       </c>
       <c r="T44" t="n">
-        <v>0.27536231884058</v>
+        <v>0.703703703703704</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0434230153030219</v>
-      </c>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
+        <v>0.874458874458874</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.288888888888889</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.851216022889843</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.675070028011205</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>0.524415259009009</v>
+        <v>0.430942616333516</v>
       </c>
       <c r="C45" t="n">
-        <v>0.641639388979815</v>
+        <v>0.147012264295071</v>
       </c>
       <c r="D45" t="n">
-        <v>0.148796851097375</v>
+        <v>0.272357555802172</v>
       </c>
       <c r="E45" t="n">
-        <v>0.408266336837765</v>
+        <v>0.337513061650993</v>
       </c>
       <c r="F45" t="n">
-        <v>0.210920158740835</v>
+        <v>0.0393772201647646</v>
       </c>
       <c r="G45" t="n">
-        <v>0.188663585520965</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.35519477730533</v>
-      </c>
+        <v>0.277777777777778</v>
+      </c>
+      <c r="H45"/>
       <c r="I45" t="n">
-        <v>0.562348308907576</v>
+        <v>0.481154060489386</v>
       </c>
       <c r="J45" t="n">
-        <v>0.578419733544387</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.157575757575758</v>
-      </c>
+        <v>0.323482377022964</v>
+      </c>
+      <c r="K45"/>
       <c r="L45" t="n">
-        <v>0.337818538849467</v>
+        <v>0.141804788213628</v>
       </c>
       <c r="M45" t="n">
-        <v>0.283395755305868</v>
+        <v>0.294195720436373</v>
       </c>
       <c r="N45" t="n">
-        <v>0.181818181818182</v>
+        <v>0.25</v>
       </c>
       <c r="O45" t="n">
-        <v>0.00907594429861636</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="P45" t="n">
-        <v>0.108333333333333</v>
-      </c>
-      <c r="Q45"/>
-      <c r="R45" t="n">
-        <v>0.0384615384615384</v>
-      </c>
+        <v>0.32183908045977</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="R45"/>
       <c r="S45" t="n">
-        <v>0.107475287763182</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0.072463768115942</v>
-      </c>
+        <v>0.329396325459318</v>
+      </c>
+      <c r="T45"/>
       <c r="U45" t="n">
-        <v>0.0109386221755704</v>
+        <v>0.341991341991342</v>
       </c>
       <c r="V45"/>
       <c r="W45"/>
@@ -2717,56 +3548,66 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>0.482896959459459</v>
+        <v>0.491598583438284</v>
       </c>
       <c r="C46" t="n">
-        <v>0.19899072558647</v>
+        <v>0.588416368429436</v>
       </c>
       <c r="D46" t="n">
-        <v>0.13035232276474</v>
+        <v>0.789186867343538</v>
       </c>
       <c r="E46" t="n">
-        <v>0.205679241393527</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.313601432703303</v>
-      </c>
+        <v>0.318123766399628</v>
+      </c>
+      <c r="F46"/>
       <c r="G46" t="n">
-        <v>0.0581308045921564</v>
-      </c>
-      <c r="H46"/>
+        <v>0.235294117647059</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.71494450275101</v>
+      </c>
       <c r="I46" t="n">
-        <v>0.40726680695183</v>
+        <v>0.296649610753669</v>
       </c>
       <c r="J46" t="n">
-        <v>0.321725366046696</v>
-      </c>
-      <c r="K46"/>
+        <v>0.569436448538348</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.210045662100457</v>
+      </c>
       <c r="L46" t="n">
-        <v>0.126232873655554</v>
+        <v>0.363720073664825</v>
       </c>
       <c r="M46" t="n">
-        <v>0.620069507709957</v>
+        <v>0.522784414014869</v>
       </c>
       <c r="N46" t="n">
-        <v>0.23030303030303</v>
+        <v>0.297619047619048</v>
       </c>
       <c r="O46" t="n">
-        <v>0.00720736753125417</v>
+        <v>0.262626262626263</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="Q46"/>
-      <c r="R46"/>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.456140350877193</v>
+      </c>
       <c r="S46" t="n">
-        <v>0.246152232622775</v>
-      </c>
-      <c r="T46"/>
+        <v>0.115485564304462</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.444444444444444</v>
+      </c>
       <c r="U46" t="n">
-        <v>0.0178995635600243</v>
-      </c>
-      <c r="V46"/>
+        <v>0.329004329004329</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.181818181818182</v>
+      </c>
       <c r="W46"/>
       <c r="X46"/>
       <c r="Y46"/>
@@ -2776,70 +3617,66 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>0.582560529279279</v>
+        <v>0.45676580445851</v>
       </c>
       <c r="C47" t="n">
-        <v>0.407289961811238</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D47" t="n">
-        <v>0.101696500994894</v>
+        <v>0.643601361080794</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0985879200164915</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.0984997533687585</v>
-      </c>
+        <v>0.19029374201788</v>
+      </c>
+      <c r="F47"/>
       <c r="G47" t="n">
-        <v>0.0172719182203817</v>
+        <v>0.108251633986928</v>
       </c>
       <c r="H47" t="n">
-        <v>0.309238500193274</v>
+        <v>0.440956651718984</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0379227731060394</v>
+        <v>0.0805292399142138</v>
       </c>
       <c r="J47" t="n">
-        <v>0.554676164094447</v>
+        <v>0.377278833237382</v>
       </c>
       <c r="K47" t="n">
-        <v>0.206060606060606</v>
+        <v>0.089041095890411</v>
       </c>
       <c r="L47" t="n">
-        <v>0.511201856562681</v>
+        <v>0.113720073664825</v>
       </c>
       <c r="M47" t="n">
-        <v>0.425877113068124</v>
+        <v>0.235095443117197</v>
       </c>
       <c r="N47" t="n">
-        <v>0.6</v>
+        <v>0.202380952380952</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0186857676736219</v>
+        <v>0.0808080808080808</v>
       </c>
       <c r="P47" t="n">
-        <v>0.433333333333333</v>
+        <v>0.252873563218391</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.266666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R47" t="n">
-        <v>0.397435897435897</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="S47" t="n">
-        <v>0.621122735257873</v>
+        <v>0.0271216097987752</v>
       </c>
       <c r="T47" t="n">
-        <v>0.449275362318841</v>
+        <v>0.240740740740741</v>
       </c>
       <c r="U47" t="n">
-        <v>0.271752941826418</v>
+        <v>0.229437229437229</v>
       </c>
       <c r="V47"/>
       <c r="W47"/>
-      <c r="X47" t="n">
-        <v>0.434782608695652</v>
-      </c>
+      <c r="X47"/>
       <c r="Y47"/>
     </row>
     <row r="48">
@@ -2847,62 +3684,58 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>0.609023085585586</v>
+        <v>0.545935996383247</v>
       </c>
       <c r="C48" t="n">
-        <v>0.197524549918167</v>
+        <v>0.393656892286789</v>
       </c>
       <c r="D48" t="n">
-        <v>0.100464552253956</v>
+        <v>0.726104655250953</v>
       </c>
       <c r="E48" t="n">
-        <v>0.141311069882498</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.0944359431402883</v>
-      </c>
+        <v>0.200859166376408</v>
+      </c>
+      <c r="F48"/>
       <c r="G48" t="n">
-        <v>0.0433265241373936</v>
+        <v>0.246323529411765</v>
       </c>
       <c r="H48" t="n">
-        <v>0.393720740454409</v>
+        <v>0.445568170976052</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0798844531760579</v>
+        <v>0.0524477768208454</v>
       </c>
       <c r="J48" t="n">
-        <v>0.504418942092072</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.248484848484848</v>
-      </c>
+        <v>0.316573914155952</v>
+      </c>
+      <c r="K48"/>
       <c r="L48" t="n">
-        <v>0.52023921096086</v>
+        <v>0.449815837937385</v>
       </c>
       <c r="M48" t="n">
-        <v>0.397644835847083</v>
+        <v>0.246436394634899</v>
       </c>
       <c r="N48" t="n">
-        <v>0.703030303030303</v>
+        <v>0.297619047619048</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0240245584375139</v>
+        <v>0.0808080808080808</v>
       </c>
       <c r="P48" t="n">
-        <v>0.741666666666667</v>
+        <v>0.206896551724138</v>
       </c>
       <c r="Q48"/>
       <c r="R48" t="n">
-        <v>0.397435897435897</v>
+        <v>0.385964912280702</v>
       </c>
       <c r="S48" t="n">
-        <v>0.542069797320328</v>
+        <v>0.0201224846894138</v>
       </c>
       <c r="T48" t="n">
-        <v>0.391304347826087</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="U48" t="n">
-        <v>0.455333959449754</v>
+        <v>0.163059163059163</v>
       </c>
       <c r="V48"/>
       <c r="W48"/>
@@ -2914,54 +3747,58 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>0.477829391891892</v>
+        <v>0.432288134681004</v>
       </c>
       <c r="C49" t="n">
-        <v>0.309260774686307</v>
+        <v>0.380453190569527</v>
       </c>
       <c r="D49" t="n">
-        <v>0.393059596405264</v>
-      </c>
-      <c r="E49"/>
+        <v>0.666395337105961</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.156739811912226</v>
+      </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>0.0466120694080329</v>
-      </c>
-      <c r="H49"/>
+        <v>0.179738562091503</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.40714944502751</v>
+      </c>
       <c r="I49" t="n">
-        <v>0.0604311928761385</v>
+        <v>0.264641910262256</v>
       </c>
       <c r="J49" t="n">
-        <v>0.654794881941696</v>
+        <v>0.39000831574234</v>
       </c>
       <c r="K49"/>
       <c r="L49" t="n">
-        <v>0.704333467220065</v>
+        <v>0.215930018416206</v>
       </c>
       <c r="M49" t="n">
-        <v>0.641427944798731</v>
+        <v>0.359738003517745</v>
       </c>
       <c r="N49" t="n">
-        <v>0.515151515151515</v>
+        <v>0.178571428571429</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0160163722916759</v>
+        <v>0.171717171717172</v>
       </c>
       <c r="P49" t="n">
-        <v>0.566666666666667</v>
+        <v>0.275862068965517</v>
       </c>
       <c r="Q49"/>
       <c r="R49" t="n">
-        <v>0.384615384615385</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="S49" t="n">
-        <v>0.658486064133826</v>
+        <v>0.0494313210848644</v>
       </c>
       <c r="T49" t="n">
-        <v>0.405797101449275</v>
+        <v>0.37037037037037</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0440859621015413</v>
+        <v>0.206349206349206</v>
       </c>
       <c r="V49"/>
       <c r="W49"/>
@@ -2972,144 +3809,130 @@
       <c r="A50" t="s">
         <v>73</v>
       </c>
-      <c r="B50" t="n">
-        <v>0.231911599099099</v>
-      </c>
+      <c r="B50"/>
       <c r="C50" t="n">
-        <v>0.569387615930169</v>
+        <v>0.276695889039497</v>
       </c>
       <c r="D50" t="n">
-        <v>0.321408763576682</v>
+        <v>0.415477402451291</v>
       </c>
       <c r="E50" t="n">
-        <v>0.341785198928056</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.0677451178224703</v>
-      </c>
+        <v>0.380935794728898</v>
+      </c>
+      <c r="F50"/>
       <c r="G50" t="n">
-        <v>0.0118332198467343</v>
+        <v>0.271650326797386</v>
       </c>
       <c r="H50" t="n">
-        <v>0.52501825366147</v>
+        <v>0.348058391374869</v>
       </c>
       <c r="I50" t="n">
-        <v>0.143266888533594</v>
+        <v>0.279825050238952</v>
       </c>
       <c r="J50" t="n">
-        <v>0.553357076902783</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.290909090909091</v>
-      </c>
+        <v>0.366404400946715</v>
+      </c>
+      <c r="K50"/>
       <c r="L50" t="n">
-        <v>0.531641897621279</v>
+        <v>0.170810313075506</v>
       </c>
       <c r="M50" t="n">
-        <v>0.434524412052502</v>
+        <v>0.278959351698985</v>
       </c>
       <c r="N50" t="n">
-        <v>0.515151515151515</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0138808559861191</v>
+        <v>0.262626262626263</v>
       </c>
       <c r="P50" t="n">
-        <v>0.55</v>
+        <v>0.35632183908046</v>
       </c>
       <c r="Q50"/>
       <c r="R50" t="n">
-        <v>0.474358974358974</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="S50" t="n">
-        <v>0.508613230551404</v>
+        <v>0.0931758530183727</v>
       </c>
       <c r="T50" t="n">
-        <v>0.478260869565217</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="U50" t="n">
-        <v>0.484301051507283</v>
+        <v>0.421356421356421</v>
       </c>
       <c r="V50"/>
-      <c r="W50" t="n">
-        <v>0.717670504871568</v>
-      </c>
-      <c r="X50" t="n">
-        <v>0.528985507246377</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>0.336711711711712</v>
+        <v>0.531318285056135</v>
       </c>
       <c r="C51" t="n">
-        <v>0.597142662302237</v>
+        <v>0.712535065222126</v>
       </c>
       <c r="D51" t="n">
-        <v>0.175196992073954</v>
+        <v>0.847087831289572</v>
       </c>
       <c r="E51" t="n">
-        <v>0.26010101010101</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.0786361292347705</v>
-      </c>
+        <v>0.366190642052711</v>
+      </c>
+      <c r="F51"/>
       <c r="G51" t="n">
-        <v>0.0219124996675801</v>
+        <v>0.236111111111111</v>
       </c>
       <c r="H51" t="n">
-        <v>0.775716187776489</v>
+        <v>0.844925738638171</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0754437338554566</v>
+        <v>0.188798824661837</v>
       </c>
       <c r="J51" t="n">
-        <v>0.74251418018731</v>
+        <v>0.611718799974413</v>
       </c>
       <c r="K51" t="n">
-        <v>0.357575757575758</v>
+        <v>0.269406392694064</v>
       </c>
       <c r="L51" t="n">
-        <v>0.862208238496898</v>
+        <v>0.61878453038674</v>
       </c>
       <c r="M51" t="n">
-        <v>0.55609542126396</v>
+        <v>0.718882522417533</v>
       </c>
       <c r="N51" t="n">
-        <v>0.557575757575758</v>
+        <v>0.345238095238095</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0173510699826489</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="P51" t="n">
-        <v>0.391666666666667</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.533333333333333</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="R51" t="n">
-        <v>0.67948717948718</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="S51" t="n">
-        <v>0.4231626419151</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="T51" t="n">
-        <v>0.652173913043478</v>
+        <v>0.574074074074074</v>
       </c>
       <c r="U51" t="n">
-        <v>0.46910852070788</v>
-      </c>
-      <c r="V51"/>
+        <v>0.313131313131313</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.272727272727273</v>
+      </c>
       <c r="W51"/>
-      <c r="X51" t="n">
-        <v>0.282608695652174</v>
-      </c>
+      <c r="X51"/>
       <c r="Y51"/>
     </row>
     <row r="52">
@@ -3117,72 +3940,68 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>0.349380630630631</v>
+        <v>0.567388940915598</v>
       </c>
       <c r="C52" t="n">
-        <v>0.319421713038734</v>
+        <v>0.598840856712857</v>
       </c>
       <c r="D52" t="n">
-        <v>0.102234394107135</v>
+        <v>0.903327952600636</v>
       </c>
       <c r="E52" t="n">
-        <v>0.284271284271284</v>
+        <v>0.254034598862185</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0311315889778256</v>
+        <v>0.0207089411231199</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00664561443871136</v>
+        <v>0.274101307189543</v>
       </c>
       <c r="H52" t="n">
-        <v>0.832238113645149</v>
+        <v>0.588398053620838</v>
       </c>
       <c r="I52" t="n">
-        <v>0.19624288265616</v>
+        <v>0.146094871405171</v>
       </c>
       <c r="J52" t="n">
-        <v>0.876401530141142</v>
+        <v>0.501887033838675</v>
       </c>
       <c r="K52"/>
       <c r="L52" t="n">
-        <v>0.931940911322355</v>
+        <v>0.298802946593002</v>
       </c>
       <c r="M52" t="n">
-        <v>0.397341161386105</v>
+        <v>0.484466888953633</v>
       </c>
       <c r="N52" t="n">
-        <v>0.587878787878788</v>
+        <v>0.19047619047619</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0165502513680651</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="P52" t="n">
-        <v>0.633333333333333</v>
+        <v>0.32183908045977</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.4</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="R52" t="n">
-        <v>0.948717948717949</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S52" t="n">
-        <v>0.376963213508482</v>
+        <v>0.0454943132108487</v>
       </c>
       <c r="T52" t="n">
-        <v>0.826086956521739</v>
+        <v>0.314814814814815</v>
       </c>
       <c r="U52" t="n">
-        <v>0.799734821280592</v>
+        <v>0.24963924963925</v>
       </c>
       <c r="V52" t="n">
-        <v>0.444444444444444</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0.968630056096841</v>
-      </c>
-      <c r="X52" t="n">
-        <v>0.753623188405797</v>
-      </c>
+        <v>0.121212121212121</v>
+      </c>
+      <c r="W52"/>
+      <c r="X52"/>
       <c r="Y52"/>
     </row>
     <row r="53">
@@ -3190,62 +4009,58 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>0.462873029279279</v>
+        <v>0.246628131021195</v>
       </c>
       <c r="C53" t="n">
-        <v>0.618419258046918</v>
+        <v>0.208879830711771</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0992239278176594</v>
+        <v>0.387663447398752</v>
       </c>
       <c r="E53" t="n">
-        <v>0.367862296433725</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.0955920270845945</v>
-      </c>
+        <v>0.106931382793452</v>
+      </c>
+      <c r="F53"/>
       <c r="G53" t="n">
-        <v>0.0274399464170085</v>
+        <v>0.345179738562092</v>
       </c>
       <c r="H53" t="n">
-        <v>0.520336726366877</v>
+        <v>0.351588588875107</v>
       </c>
       <c r="I53" t="n">
-        <v>0.136463789668024</v>
+        <v>0.185497407838965</v>
       </c>
       <c r="J53" t="n">
-        <v>0.632238490964253</v>
-      </c>
-      <c r="K53"/>
+        <v>0.345998848589522</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.198630136986301</v>
+      </c>
       <c r="L53" t="n">
-        <v>0.596108358994957</v>
+        <v>0.124769797421731</v>
       </c>
       <c r="M53" t="n">
-        <v>0.651719134865202</v>
+        <v>0.25669828321086</v>
       </c>
       <c r="N53" t="n">
-        <v>0.424242424242424</v>
+        <v>0.273809523809524</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0192196467500111</v>
+        <v>0.242424242424242</v>
       </c>
       <c r="P53" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0.266666666666667</v>
-      </c>
+        <v>0.379310344827586</v>
+      </c>
+      <c r="Q53"/>
       <c r="R53" t="n">
-        <v>0.41025641025641</v>
+        <v>0.385964912280702</v>
       </c>
       <c r="S53" t="n">
-        <v>0.510999239623483</v>
-      </c>
-      <c r="T53" t="n">
-        <v>0.608695652173913</v>
-      </c>
+        <v>0.0748031496062992</v>
+      </c>
+      <c r="T53"/>
       <c r="U53" t="n">
-        <v>0.0351361803215292</v>
+        <v>0.297258297258297</v>
       </c>
       <c r="V53"/>
       <c r="W53"/>
@@ -3257,67 +4072,132 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>0.337028434684685</v>
+        <v>0.376906599498391</v>
       </c>
       <c r="C54" t="n">
-        <v>0.293235133660666</v>
+        <v>0.60533218914254</v>
       </c>
       <c r="D54" t="n">
-        <v>0.372512773573304</v>
+        <v>0.806671191373707</v>
       </c>
       <c r="E54" t="n">
-        <v>0.286281179138322</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.571268020896393</v>
-      </c>
+        <v>0.236502960640892</v>
+      </c>
+      <c r="F54"/>
       <c r="G54" t="n">
-        <v>0.698116369838911</v>
+        <v>0.171160130718954</v>
       </c>
       <c r="H54" t="n">
-        <v>0.548039342009191</v>
+        <v>0.684285850586776</v>
       </c>
       <c r="I54" t="n">
-        <v>0.378757638314343</v>
+        <v>0.245377172095851</v>
       </c>
       <c r="J54" t="n">
-        <v>0.69608231104076</v>
+        <v>0.6156208021493</v>
       </c>
       <c r="K54" t="n">
-        <v>0.478787878787879</v>
+        <v>0.228310502283105</v>
       </c>
       <c r="L54" t="n">
-        <v>0.688155487124559</v>
+        <v>0.430018416206262</v>
       </c>
       <c r="M54" t="n">
-        <v>0.447751121908425</v>
+        <v>0.621119419895762</v>
       </c>
       <c r="N54" t="n">
-        <v>0.460606060606061</v>
+        <v>0.380952380952381</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0328335631979357</v>
+        <v>0.242424242424242</v>
       </c>
       <c r="P54" t="n">
-        <v>0.591666666666667</v>
-      </c>
-      <c r="Q54"/>
+        <v>0.402298850574713</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.0833333333333333</v>
+      </c>
       <c r="R54" t="n">
-        <v>0.397435897435897</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="S54" t="n">
-        <v>0.581058758750885</v>
+        <v>0.0691163604549431</v>
       </c>
       <c r="T54" t="n">
-        <v>0.333333333333333</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="U54" t="n">
-        <v>0.587223541977423</v>
+        <v>0.366522366522366</v>
       </c>
       <c r="V54"/>
       <c r="W54"/>
       <c r="X54"/>
       <c r="Y54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.278554590370394</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.32530774506649</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.4889404542439</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.191803088354812</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55" t="n">
+        <v>0.267156862745098</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.479407181248609</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.208244254183765</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.410797671592145</v>
+      </c>
+      <c r="K55"/>
+      <c r="L55" t="n">
+        <v>0.195211786372007</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.332038457803244</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.344827586206897</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.473684210526316</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.0678040244969379</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.259259259259259</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.350649350649351</v>
+      </c>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
